--- a/03_Materials/finalize_stimuli/ja/ja_translated_final.xlsx
+++ b/03_Materials/finalize_stimuli/ja/ja_translated_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erinbuchanan/GitHub/Research/2_projects/SPAML/SPAML-PSA/03_Materials/finalize_stimuli/ja/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4372DC-7A03-2D4F-8113-A285751C1141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50FD4F52-70C5-DB40-A3D5-3A50AFAD3881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18218,7 +18218,7 @@
   <dimension ref="A1:G1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -18252,7 +18252,7 @@
         <v>5949</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="15">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -18272,7 +18272,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" ht="15">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -18292,7 +18292,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="15">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -18312,7 +18312,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" ht="15">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
@@ -18332,7 +18332,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="15">
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
@@ -18352,7 +18352,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" ht="15">
       <c r="A7" s="1" t="s">
         <v>36</v>
       </c>
@@ -18372,7 +18372,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" ht="15">
       <c r="A8" s="1" t="s">
         <v>42</v>
       </c>
@@ -18392,7 +18392,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="15">
       <c r="A9" s="1" t="s">
         <v>48</v>
       </c>
@@ -18412,7 +18412,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="15">
       <c r="A10" s="1" t="s">
         <v>54</v>
       </c>
@@ -18432,7 +18432,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" ht="15">
       <c r="A11" s="2" t="s">
         <v>60</v>
       </c>
@@ -18475,7 +18475,7 @@
         <v>5948</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" ht="15">
       <c r="A13" s="1" t="s">
         <v>72</v>
       </c>
@@ -18495,7 +18495,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" ht="15">
       <c r="A14" s="1" t="s">
         <v>78</v>
       </c>
@@ -18515,7 +18515,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" ht="15">
       <c r="A15" s="1" t="s">
         <v>84</v>
       </c>
@@ -18535,7 +18535,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" ht="15">
       <c r="A16" s="1" t="s">
         <v>90</v>
       </c>
@@ -18555,7 +18555,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" ht="15">
       <c r="A17" s="1" t="s">
         <v>96</v>
       </c>
@@ -18575,7 +18575,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="15">
       <c r="A18" s="1" t="s">
         <v>102</v>
       </c>
@@ -18595,7 +18595,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" ht="15">
       <c r="A19" s="1" t="s">
         <v>108</v>
       </c>
@@ -18615,7 +18615,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" ht="15">
       <c r="A20" s="2" t="s">
         <v>114</v>
       </c>
@@ -18635,7 +18635,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="15">
       <c r="A21" s="1" t="s">
         <v>120</v>
       </c>
@@ -18655,7 +18655,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" ht="15">
       <c r="A22" s="1" t="s">
         <v>126</v>
       </c>
@@ -18675,7 +18675,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" ht="15">
       <c r="A23" s="2" t="s">
         <v>132</v>
       </c>
@@ -18695,7 +18695,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" ht="15">
       <c r="A24" s="1" t="s">
         <v>138</v>
       </c>
@@ -18715,7 +18715,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" ht="15">
       <c r="A25" s="2" t="s">
         <v>144</v>
       </c>
@@ -18735,7 +18735,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" ht="15">
       <c r="A26" s="1" t="s">
         <v>150</v>
       </c>
@@ -18755,7 +18755,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" ht="15">
       <c r="A27" s="1" t="s">
         <v>156</v>
       </c>
@@ -18775,7 +18775,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" ht="15">
       <c r="A28" s="1" t="s">
         <v>162</v>
       </c>
@@ -18795,7 +18795,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" ht="15">
       <c r="A29" s="1" t="s">
         <v>168</v>
       </c>
@@ -18815,7 +18815,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" ht="15">
       <c r="A30" s="1" t="s">
         <v>174</v>
       </c>
@@ -18835,7 +18835,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" ht="15">
       <c r="A31" s="1" t="s">
         <v>180</v>
       </c>
@@ -18855,7 +18855,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" ht="15">
       <c r="A32" s="1" t="s">
         <v>186</v>
       </c>
@@ -18875,7 +18875,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" ht="15">
       <c r="A33" s="1" t="s">
         <v>192</v>
       </c>
@@ -18895,7 +18895,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" ht="15">
       <c r="A34" s="1" t="s">
         <v>198</v>
       </c>
@@ -18915,7 +18915,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" ht="15">
       <c r="A35" s="1" t="s">
         <v>204</v>
       </c>
@@ -18935,7 +18935,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" ht="15">
       <c r="A36" s="1" t="s">
         <v>210</v>
       </c>
@@ -18955,7 +18955,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" ht="15">
       <c r="A37" s="1" t="s">
         <v>216</v>
       </c>
@@ -18975,7 +18975,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" ht="15">
       <c r="A38" s="2" t="s">
         <v>222</v>
       </c>
@@ -18995,7 +18995,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" ht="15">
       <c r="A39" s="1" t="s">
         <v>228</v>
       </c>
@@ -19015,7 +19015,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" ht="15">
       <c r="A40" s="1" t="s">
         <v>234</v>
       </c>
@@ -19035,7 +19035,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" ht="15">
       <c r="A41" s="1" t="s">
         <v>240</v>
       </c>
@@ -19055,7 +19055,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" ht="15">
       <c r="A42" s="1" t="s">
         <v>246</v>
       </c>
@@ -19075,7 +19075,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" ht="15">
       <c r="A43" s="1" t="s">
         <v>252</v>
       </c>
@@ -19095,7 +19095,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" ht="15">
       <c r="A44" s="2" t="s">
         <v>258</v>
       </c>
@@ -19115,7 +19115,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" ht="15">
       <c r="A45" s="1" t="s">
         <v>264</v>
       </c>
@@ -19135,7 +19135,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" ht="15">
       <c r="A46" s="1" t="s">
         <v>270</v>
       </c>
@@ -19155,7 +19155,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" ht="15">
       <c r="A47" s="1" t="s">
         <v>276</v>
       </c>
@@ -19175,7 +19175,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" ht="15">
       <c r="A48" s="1" t="s">
         <v>282</v>
       </c>
@@ -19195,7 +19195,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" ht="15">
       <c r="A49" s="1" t="s">
         <v>288</v>
       </c>
@@ -19215,7 +19215,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" ht="15">
       <c r="A50" s="1" t="s">
         <v>294</v>
       </c>
@@ -19235,7 +19235,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" ht="15">
       <c r="A51" s="1" t="s">
         <v>300</v>
       </c>
@@ -19255,7 +19255,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" ht="15">
       <c r="A52" s="1" t="s">
         <v>306</v>
       </c>
@@ -19275,7 +19275,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" ht="15">
       <c r="A53" s="1" t="s">
         <v>312</v>
       </c>
@@ -19295,7 +19295,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" ht="15">
       <c r="A54" s="1" t="s">
         <v>318</v>
       </c>
@@ -19315,7 +19315,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" ht="15">
       <c r="A55" s="1" t="s">
         <v>324</v>
       </c>
@@ -19335,7 +19335,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" ht="15">
       <c r="A56" s="1" t="s">
         <v>330</v>
       </c>
@@ -19355,7 +19355,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" ht="15">
       <c r="A57" s="1" t="s">
         <v>336</v>
       </c>
@@ -19375,7 +19375,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" ht="15">
       <c r="A58" s="1" t="s">
         <v>342</v>
       </c>
@@ -19395,7 +19395,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" ht="15">
       <c r="A59" s="1" t="s">
         <v>348</v>
       </c>
@@ -19415,7 +19415,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" ht="15">
       <c r="A60" s="1" t="s">
         <v>354</v>
       </c>
@@ -19435,7 +19435,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" ht="15">
       <c r="A61" s="1" t="s">
         <v>360</v>
       </c>
@@ -19455,7 +19455,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" ht="15">
       <c r="A62" s="1" t="s">
         <v>366</v>
       </c>
@@ -19475,7 +19475,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" ht="15">
       <c r="A63" s="1" t="s">
         <v>372</v>
       </c>
@@ -19495,7 +19495,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" ht="15">
       <c r="A64" s="1" t="s">
         <v>378</v>
       </c>
@@ -19515,7 +19515,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" ht="15">
       <c r="A65" s="1" t="s">
         <v>384</v>
       </c>
@@ -19535,7 +19535,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" ht="15">
       <c r="A66" s="1" t="s">
         <v>390</v>
       </c>
@@ -19555,7 +19555,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" ht="15">
       <c r="A67" s="1" t="s">
         <v>396</v>
       </c>
@@ -19575,7 +19575,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" ht="15">
       <c r="A68" s="1" t="s">
         <v>402</v>
       </c>
@@ -19595,7 +19595,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" ht="15">
       <c r="A69" s="1" t="s">
         <v>408</v>
       </c>
@@ -19615,7 +19615,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" ht="15">
       <c r="A70" s="1" t="s">
         <v>414</v>
       </c>
@@ -19635,7 +19635,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" ht="15">
       <c r="A71" s="1" t="s">
         <v>420</v>
       </c>
@@ -19655,7 +19655,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" ht="15">
       <c r="A72" s="1" t="s">
         <v>426</v>
       </c>
@@ -19675,7 +19675,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" ht="15">
       <c r="A73" s="1" t="s">
         <v>432</v>
       </c>
@@ -19695,7 +19695,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" ht="15">
       <c r="A74" s="1" t="s">
         <v>438</v>
       </c>
@@ -19715,7 +19715,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" ht="15">
       <c r="A75" s="1" t="s">
         <v>444</v>
       </c>
@@ -19735,7 +19735,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" ht="15">
       <c r="A76" s="1" t="s">
         <v>450</v>
       </c>
@@ -19755,7 +19755,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" ht="15">
       <c r="A77" s="1" t="s">
         <v>456</v>
       </c>
@@ -19775,7 +19775,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" ht="15">
       <c r="A78" s="1" t="s">
         <v>462</v>
       </c>
@@ -19795,7 +19795,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" ht="15">
       <c r="A79" s="1" t="s">
         <v>468</v>
       </c>
@@ -19815,7 +19815,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" ht="15">
       <c r="A80" s="1" t="s">
         <v>474</v>
       </c>
@@ -19835,7 +19835,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" ht="15">
       <c r="A81" s="1" t="s">
         <v>480</v>
       </c>
@@ -19855,7 +19855,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" ht="15">
       <c r="A82" s="1" t="s">
         <v>486</v>
       </c>
@@ -19875,7 +19875,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" ht="15">
       <c r="A83" s="1" t="s">
         <v>492</v>
       </c>
@@ -19895,7 +19895,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" ht="15">
       <c r="A84" s="1" t="s">
         <v>498</v>
       </c>
@@ -19915,7 +19915,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" ht="15">
       <c r="A85" s="1" t="s">
         <v>504</v>
       </c>
@@ -19935,7 +19935,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" ht="15">
       <c r="A86" s="1" t="s">
         <v>510</v>
       </c>
@@ -19955,7 +19955,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" ht="15">
       <c r="A87" s="1" t="s">
         <v>516</v>
       </c>
@@ -19975,7 +19975,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" ht="15">
       <c r="A88" s="1" t="s">
         <v>522</v>
       </c>
@@ -19995,7 +19995,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" ht="15">
       <c r="A89" s="1" t="s">
         <v>528</v>
       </c>
@@ -20015,7 +20015,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" ht="15">
       <c r="A90" s="1" t="s">
         <v>534</v>
       </c>
@@ -20035,7 +20035,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" ht="15">
       <c r="A91" s="1" t="s">
         <v>540</v>
       </c>
@@ -20055,7 +20055,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" ht="15">
       <c r="A92" s="1" t="s">
         <v>546</v>
       </c>
@@ -20075,7 +20075,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" ht="15">
       <c r="A93" s="2" t="s">
         <v>552</v>
       </c>
@@ -20095,7 +20095,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" ht="15">
       <c r="A94" s="1" t="s">
         <v>558</v>
       </c>
@@ -20115,7 +20115,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" ht="15">
       <c r="A95" s="1" t="s">
         <v>564</v>
       </c>
@@ -20135,7 +20135,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" ht="15">
       <c r="A96" s="1" t="s">
         <v>570</v>
       </c>
@@ -20155,7 +20155,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" ht="15">
       <c r="A97" s="1" t="s">
         <v>576</v>
       </c>
@@ -20175,7 +20175,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" ht="15">
       <c r="A98" s="1" t="s">
         <v>582</v>
       </c>
@@ -20195,7 +20195,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" ht="15">
       <c r="A99" s="1" t="s">
         <v>588</v>
       </c>
@@ -20215,7 +20215,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" ht="15">
       <c r="A100" s="1" t="s">
         <v>594</v>
       </c>
@@ -20235,7 +20235,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" ht="15">
       <c r="A101" s="1" t="s">
         <v>600</v>
       </c>
@@ -20255,7 +20255,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" ht="15">
       <c r="A102" s="1" t="s">
         <v>606</v>
       </c>
@@ -20275,7 +20275,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" ht="15">
       <c r="A103" s="1" t="s">
         <v>612</v>
       </c>
@@ -20295,7 +20295,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" ht="15">
       <c r="A104" s="1" t="s">
         <v>618</v>
       </c>
@@ -20315,7 +20315,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" ht="15">
       <c r="A105" s="1" t="s">
         <v>624</v>
       </c>
@@ -20335,7 +20335,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" ht="15">
       <c r="A106" s="1" t="s">
         <v>624</v>
       </c>
@@ -20355,7 +20355,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" ht="15">
       <c r="A107" s="2" t="s">
         <v>635</v>
       </c>
@@ -20375,7 +20375,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" ht="15">
       <c r="A108" s="1" t="s">
         <v>641</v>
       </c>
@@ -20395,7 +20395,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" ht="15">
       <c r="A109" s="1" t="s">
         <v>647</v>
       </c>
@@ -20415,7 +20415,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" ht="15">
       <c r="A110" s="1" t="s">
         <v>653</v>
       </c>
@@ -20435,7 +20435,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" ht="15">
       <c r="A111" s="1" t="s">
         <v>659</v>
       </c>
@@ -20455,7 +20455,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" ht="15">
       <c r="A112" s="1" t="s">
         <v>665</v>
       </c>
@@ -20475,7 +20475,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" ht="15">
       <c r="A113" s="1" t="s">
         <v>671</v>
       </c>
@@ -20495,7 +20495,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" ht="15">
       <c r="A114" s="1" t="s">
         <v>677</v>
       </c>
@@ -20515,7 +20515,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" ht="15">
       <c r="A115" s="1" t="s">
         <v>683</v>
       </c>
@@ -20535,7 +20535,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" ht="15">
       <c r="A116" s="1" t="s">
         <v>689</v>
       </c>
@@ -20555,7 +20555,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" ht="15">
       <c r="A117" s="2" t="s">
         <v>695</v>
       </c>
@@ -20575,7 +20575,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" ht="15">
       <c r="A118" s="1" t="s">
         <v>701</v>
       </c>
@@ -20595,7 +20595,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" ht="15">
       <c r="A119" s="1" t="s">
         <v>707</v>
       </c>
@@ -20615,7 +20615,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" ht="15">
       <c r="A120" s="1" t="s">
         <v>713</v>
       </c>
@@ -20635,7 +20635,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" ht="15">
       <c r="A121" s="1" t="s">
         <v>719</v>
       </c>
@@ -20655,7 +20655,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" ht="15">
       <c r="A122" s="1" t="s">
         <v>725</v>
       </c>
@@ -20675,7 +20675,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" ht="15">
       <c r="A123" s="1" t="s">
         <v>731</v>
       </c>
@@ -20695,7 +20695,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" ht="15">
       <c r="A124" s="1" t="s">
         <v>737</v>
       </c>
@@ -20715,7 +20715,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" ht="15">
       <c r="A125" s="1" t="s">
         <v>743</v>
       </c>
@@ -20735,7 +20735,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" ht="15">
       <c r="A126" s="1" t="s">
         <v>749</v>
       </c>
@@ -20755,7 +20755,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" ht="15">
       <c r="A127" s="1" t="s">
         <v>755</v>
       </c>
@@ -20775,7 +20775,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" ht="15">
       <c r="A128" s="1" t="s">
         <v>761</v>
       </c>
@@ -20795,7 +20795,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" ht="15">
       <c r="A129" s="1" t="s">
         <v>767</v>
       </c>
@@ -20815,7 +20815,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" ht="15">
       <c r="A130" s="1" t="s">
         <v>773</v>
       </c>
@@ -20835,7 +20835,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" ht="15">
       <c r="A131" s="1" t="s">
         <v>779</v>
       </c>
@@ -20855,7 +20855,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" ht="15">
       <c r="A132" s="1" t="s">
         <v>785</v>
       </c>
@@ -20875,7 +20875,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" ht="15">
       <c r="A133" s="1" t="s">
         <v>791</v>
       </c>
@@ -20895,7 +20895,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" ht="15">
       <c r="A134" s="1" t="s">
         <v>797</v>
       </c>
@@ -20915,7 +20915,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" ht="15">
       <c r="A135" s="1" t="s">
         <v>803</v>
       </c>
@@ -20935,7 +20935,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" ht="15">
       <c r="A136" s="1" t="s">
         <v>809</v>
       </c>
@@ -20955,7 +20955,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" ht="15">
       <c r="A137" s="2" t="s">
         <v>815</v>
       </c>
@@ -20975,7 +20975,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" ht="15">
       <c r="A138" s="1" t="s">
         <v>821</v>
       </c>
@@ -20995,7 +20995,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" ht="15">
       <c r="A139" s="2" t="s">
         <v>827</v>
       </c>
@@ -21015,7 +21015,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" ht="15">
       <c r="A140" s="1" t="s">
         <v>833</v>
       </c>
@@ -21035,7 +21035,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" ht="15">
       <c r="A141" s="1" t="s">
         <v>839</v>
       </c>
@@ -21055,7 +21055,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" ht="15">
       <c r="A142" s="1" t="s">
         <v>845</v>
       </c>
@@ -21075,7 +21075,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" ht="15">
       <c r="A143" s="2" t="s">
         <v>851</v>
       </c>
@@ -21095,7 +21095,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" ht="15">
       <c r="A144" s="1" t="s">
         <v>857</v>
       </c>
@@ -21115,7 +21115,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" ht="15">
       <c r="A145" s="1" t="s">
         <v>863</v>
       </c>
@@ -21135,7 +21135,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" ht="15">
       <c r="A146" s="1" t="s">
         <v>869</v>
       </c>
@@ -21155,7 +21155,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" ht="15">
       <c r="A147" s="1" t="s">
         <v>875</v>
       </c>
@@ -21175,7 +21175,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" ht="15">
       <c r="A148" s="1" t="s">
         <v>881</v>
       </c>
@@ -21195,7 +21195,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" ht="15">
       <c r="A149" s="1" t="s">
         <v>887</v>
       </c>
@@ -21215,7 +21215,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" ht="15">
       <c r="A150" s="1" t="s">
         <v>893</v>
       </c>
@@ -21235,7 +21235,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" ht="15">
       <c r="A151" s="1" t="s">
         <v>899</v>
       </c>
@@ -21255,7 +21255,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" ht="15">
       <c r="A152" s="1" t="s">
         <v>905</v>
       </c>
@@ -21275,7 +21275,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" ht="15">
       <c r="A153" s="2" t="s">
         <v>911</v>
       </c>
@@ -21295,7 +21295,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" ht="15">
       <c r="A154" s="1" t="s">
         <v>917</v>
       </c>
@@ -21315,7 +21315,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" ht="15">
       <c r="A155" s="1" t="s">
         <v>923</v>
       </c>
@@ -21335,7 +21335,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" ht="15">
       <c r="A156" s="1" t="s">
         <v>929</v>
       </c>
@@ -21355,7 +21355,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" ht="15">
       <c r="A157" s="1" t="s">
         <v>935</v>
       </c>
@@ -21375,7 +21375,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" ht="15">
       <c r="A158" s="1" t="s">
         <v>941</v>
       </c>
@@ -21395,7 +21395,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" ht="15">
       <c r="A159" s="2" t="s">
         <v>947</v>
       </c>
@@ -21415,7 +21415,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" ht="15">
       <c r="A160" s="1" t="s">
         <v>953</v>
       </c>
@@ -21435,7 +21435,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" ht="15">
       <c r="A161" s="1" t="s">
         <v>959</v>
       </c>
@@ -21455,7 +21455,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" ht="15">
       <c r="A162" s="1" t="s">
         <v>965</v>
       </c>
@@ -21475,7 +21475,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" ht="15">
       <c r="A163" s="1" t="s">
         <v>971</v>
       </c>
@@ -21495,7 +21495,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" ht="15">
       <c r="A164" s="2" t="s">
         <v>977</v>
       </c>
@@ -21515,7 +21515,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" ht="15">
       <c r="A165" s="1" t="s">
         <v>983</v>
       </c>
@@ -21535,7 +21535,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" ht="15">
       <c r="A166" s="1" t="s">
         <v>989</v>
       </c>
@@ -21555,7 +21555,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" ht="15">
       <c r="A167" s="1" t="s">
         <v>995</v>
       </c>
@@ -21575,7 +21575,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" ht="15">
       <c r="A168" s="1" t="s">
         <v>1001</v>
       </c>
@@ -21595,7 +21595,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" ht="15">
       <c r="A169" s="1" t="s">
         <v>1007</v>
       </c>
@@ -21615,7 +21615,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" ht="15">
       <c r="A170" s="1" t="s">
         <v>1013</v>
       </c>
@@ -21635,7 +21635,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" ht="15">
       <c r="A171" s="1" t="s">
         <v>1019</v>
       </c>
@@ -21655,7 +21655,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" ht="15">
       <c r="A172" s="1" t="s">
         <v>1025</v>
       </c>
@@ -21675,7 +21675,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" ht="15">
       <c r="A173" s="1" t="s">
         <v>1031</v>
       </c>
@@ -21695,7 +21695,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" ht="15">
       <c r="A174" s="1" t="s">
         <v>1037</v>
       </c>
@@ -21715,7 +21715,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" ht="15">
       <c r="A175" s="1" t="s">
         <v>762</v>
       </c>
@@ -21735,7 +21735,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" ht="15">
       <c r="A176" s="1" t="s">
         <v>1048</v>
       </c>
@@ -21755,7 +21755,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:6" ht="15">
       <c r="A177" s="1" t="s">
         <v>1054</v>
       </c>
@@ -21775,7 +21775,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:6" ht="15">
       <c r="A178" s="1" t="s">
         <v>1060</v>
       </c>
@@ -21795,7 +21795,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:6" ht="15">
       <c r="A179" s="1" t="s">
         <v>1066</v>
       </c>
@@ -21815,7 +21815,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:6" ht="15">
       <c r="A180" s="2" t="s">
         <v>1072</v>
       </c>
@@ -21835,7 +21835,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" ht="15">
       <c r="A181" s="1" t="s">
         <v>1078</v>
       </c>
@@ -21855,7 +21855,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:6" ht="15">
       <c r="A182" s="1" t="s">
         <v>1084</v>
       </c>
@@ -21875,7 +21875,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:6" ht="15">
       <c r="A183" s="1" t="s">
         <v>1090</v>
       </c>
@@ -21895,7 +21895,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:6" ht="15">
       <c r="A184" s="1" t="s">
         <v>1096</v>
       </c>
@@ -21915,7 +21915,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:6" ht="15">
       <c r="A185" s="1" t="s">
         <v>1102</v>
       </c>
@@ -21935,7 +21935,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:6" ht="15">
       <c r="A186" s="1" t="s">
         <v>1108</v>
       </c>
@@ -21955,7 +21955,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" spans="1:6" ht="15">
       <c r="A187" s="1" t="s">
         <v>1114</v>
       </c>
@@ -21975,7 +21975,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:6" ht="15">
       <c r="A188" s="2" t="s">
         <v>1120</v>
       </c>
@@ -21995,7 +21995,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:6" ht="15">
       <c r="A189" s="1" t="s">
         <v>1126</v>
       </c>
@@ -22015,7 +22015,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:6" ht="15">
       <c r="A190" s="1" t="s">
         <v>1132</v>
       </c>
@@ -22035,7 +22035,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" spans="1:6" ht="15">
       <c r="A191" s="2" t="s">
         <v>1138</v>
       </c>
@@ -22055,7 +22055,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" spans="1:6" ht="15">
       <c r="A192" s="1" t="s">
         <v>1144</v>
       </c>
@@ -22075,7 +22075,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:6" ht="15">
       <c r="A193" s="1" t="s">
         <v>1150</v>
       </c>
@@ -22095,7 +22095,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194" spans="1:6" ht="15">
       <c r="A194" s="1" t="s">
         <v>1156</v>
       </c>
@@ -22115,7 +22115,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="195" spans="1:6">
+    <row r="195" spans="1:6" ht="15">
       <c r="A195" s="1" t="s">
         <v>1162</v>
       </c>
@@ -22135,7 +22135,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" spans="1:6" ht="15">
       <c r="A196" s="1" t="s">
         <v>1168</v>
       </c>
@@ -22155,7 +22155,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197" spans="1:6" ht="15">
       <c r="A197" s="2" t="s">
         <v>1174</v>
       </c>
@@ -22175,7 +22175,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" spans="1:6" ht="15">
       <c r="A198" s="1" t="s">
         <v>1180</v>
       </c>
@@ -22195,7 +22195,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="199" spans="1:6">
+    <row r="199" spans="1:6" ht="15">
       <c r="A199" s="1" t="s">
         <v>1186</v>
       </c>
@@ -22215,7 +22215,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="200" spans="1:6">
+    <row r="200" spans="1:6" ht="15">
       <c r="A200" s="1" t="s">
         <v>1191</v>
       </c>
@@ -22235,7 +22235,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="201" spans="1:6">
+    <row r="201" spans="1:6" ht="15">
       <c r="A201" s="1" t="s">
         <v>1197</v>
       </c>
@@ -22255,7 +22255,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="202" spans="1:6">
+    <row r="202" spans="1:6" ht="15">
       <c r="A202" s="1" t="s">
         <v>1203</v>
       </c>
@@ -22275,7 +22275,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="203" spans="1:6">
+    <row r="203" spans="1:6" ht="15">
       <c r="A203" s="1" t="s">
         <v>1209</v>
       </c>
@@ -22295,7 +22295,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="204" spans="1:6">
+    <row r="204" spans="1:6" ht="15">
       <c r="A204" s="1" t="s">
         <v>1215</v>
       </c>
@@ -22315,7 +22315,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="205" spans="1:6">
+    <row r="205" spans="1:6" ht="15">
       <c r="A205" s="1" t="s">
         <v>1221</v>
       </c>
@@ -22335,7 +22335,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="206" spans="1:6">
+    <row r="206" spans="1:6" ht="15">
       <c r="A206" s="1" t="s">
         <v>1227</v>
       </c>
@@ -22355,7 +22355,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="207" spans="1:6">
+    <row r="207" spans="1:6" ht="15">
       <c r="A207" s="1" t="s">
         <v>1233</v>
       </c>
@@ -22375,7 +22375,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="208" spans="1:6">
+    <row r="208" spans="1:6" ht="15">
       <c r="A208" s="1" t="s">
         <v>1239</v>
       </c>
@@ -22395,7 +22395,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="209" spans="1:6">
+    <row r="209" spans="1:6" ht="15">
       <c r="A209" s="1" t="s">
         <v>1245</v>
       </c>
@@ -22415,7 +22415,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="210" spans="1:6">
+    <row r="210" spans="1:6" ht="15">
       <c r="A210" s="1" t="s">
         <v>1251</v>
       </c>
@@ -22435,7 +22435,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="211" spans="1:6">
+    <row r="211" spans="1:6" ht="15">
       <c r="A211" s="1" t="s">
         <v>1257</v>
       </c>
@@ -22455,7 +22455,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="212" spans="1:6">
+    <row r="212" spans="1:6" ht="15">
       <c r="A212" s="1" t="s">
         <v>1263</v>
       </c>
@@ -22475,7 +22475,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="213" spans="1:6">
+    <row r="213" spans="1:6" ht="15">
       <c r="A213" s="1" t="s">
         <v>1269</v>
       </c>
@@ -22495,7 +22495,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="214" spans="1:6">
+    <row r="214" spans="1:6" ht="15">
       <c r="A214" s="1" t="s">
         <v>1275</v>
       </c>
@@ -22515,7 +22515,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="215" spans="1:6">
+    <row r="215" spans="1:6" ht="15">
       <c r="A215" s="1" t="s">
         <v>1281</v>
       </c>
@@ -22535,7 +22535,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="216" spans="1:6">
+    <row r="216" spans="1:6" ht="15">
       <c r="A216" s="1" t="s">
         <v>1287</v>
       </c>
@@ -22555,7 +22555,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="217" spans="1:6">
+    <row r="217" spans="1:6" ht="15">
       <c r="A217" s="1" t="s">
         <v>1293</v>
       </c>
@@ -22575,7 +22575,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="218" spans="1:6">
+    <row r="218" spans="1:6" ht="15">
       <c r="A218" s="1" t="s">
         <v>1299</v>
       </c>
@@ -22595,7 +22595,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="219" spans="1:6">
+    <row r="219" spans="1:6" ht="15">
       <c r="A219" s="1" t="s">
         <v>1305</v>
       </c>
@@ -22615,7 +22615,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="220" spans="1:6">
+    <row r="220" spans="1:6" ht="15">
       <c r="A220" s="1" t="s">
         <v>1311</v>
       </c>
@@ -22635,7 +22635,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="221" spans="1:6">
+    <row r="221" spans="1:6" ht="15">
       <c r="A221" s="2" t="s">
         <v>1317</v>
       </c>
@@ -22655,7 +22655,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="222" spans="1:6">
+    <row r="222" spans="1:6" ht="15">
       <c r="A222" s="1" t="s">
         <v>1323</v>
       </c>
@@ -22675,7 +22675,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="223" spans="1:6">
+    <row r="223" spans="1:6" ht="15">
       <c r="A223" s="1" t="s">
         <v>1329</v>
       </c>
@@ -22695,7 +22695,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="224" spans="1:6">
+    <row r="224" spans="1:6" ht="15">
       <c r="A224" s="1" t="s">
         <v>966</v>
       </c>
@@ -22715,7 +22715,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="225" spans="1:6">
+    <row r="225" spans="1:6" ht="15">
       <c r="A225" s="1" t="s">
         <v>1340</v>
       </c>
@@ -22735,7 +22735,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="226" spans="1:6">
+    <row r="226" spans="1:6" ht="15">
       <c r="A226" s="1" t="s">
         <v>1346</v>
       </c>
@@ -22755,7 +22755,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="227" spans="1:6">
+    <row r="227" spans="1:6" ht="15">
       <c r="A227" s="1" t="s">
         <v>1352</v>
       </c>
@@ -22775,7 +22775,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="228" spans="1:6">
+    <row r="228" spans="1:6" ht="15">
       <c r="A228" s="1" t="s">
         <v>1358</v>
       </c>
@@ -22795,7 +22795,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="229" spans="1:6">
+    <row r="229" spans="1:6" ht="15">
       <c r="A229" s="1" t="s">
         <v>1364</v>
       </c>
@@ -22815,7 +22815,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="230" spans="1:6">
+    <row r="230" spans="1:6" ht="15">
       <c r="A230" s="1" t="s">
         <v>1370</v>
       </c>
@@ -22835,7 +22835,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="231" spans="1:6">
+    <row r="231" spans="1:6" ht="15">
       <c r="A231" s="1" t="s">
         <v>1376</v>
       </c>
@@ -22855,7 +22855,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="232" spans="1:6">
+    <row r="232" spans="1:6" ht="15">
       <c r="A232" s="1" t="s">
         <v>1382</v>
       </c>
@@ -22875,7 +22875,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="233" spans="1:6">
+    <row r="233" spans="1:6" ht="15">
       <c r="A233" s="1" t="s">
         <v>1388</v>
       </c>
@@ -22895,7 +22895,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="234" spans="1:6">
+    <row r="234" spans="1:6" ht="15">
       <c r="A234" s="1" t="s">
         <v>1394</v>
       </c>
@@ -22915,7 +22915,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="235" spans="1:6">
+    <row r="235" spans="1:6" ht="15">
       <c r="A235" s="1" t="s">
         <v>1400</v>
       </c>
@@ -22935,7 +22935,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="236" spans="1:6">
+    <row r="236" spans="1:6" ht="15">
       <c r="A236" s="1" t="s">
         <v>1406</v>
       </c>
@@ -22955,7 +22955,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="237" spans="1:6">
+    <row r="237" spans="1:6" ht="15">
       <c r="A237" s="1" t="s">
         <v>1412</v>
       </c>
@@ -22975,7 +22975,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="238" spans="1:6">
+    <row r="238" spans="1:6" ht="15">
       <c r="A238" s="1" t="s">
         <v>1418</v>
       </c>
@@ -22995,7 +22995,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="239" spans="1:6">
+    <row r="239" spans="1:6" ht="15">
       <c r="A239" s="1" t="s">
         <v>1424</v>
       </c>
@@ -23015,7 +23015,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="240" spans="1:6">
+    <row r="240" spans="1:6" ht="15">
       <c r="A240" s="1" t="s">
         <v>1430</v>
       </c>
@@ -23035,7 +23035,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="241" spans="1:6">
+    <row r="241" spans="1:6" ht="15">
       <c r="A241" s="1" t="s">
         <v>1436</v>
       </c>
@@ -23055,7 +23055,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="242" spans="1:6">
+    <row r="242" spans="1:6" ht="15">
       <c r="A242" s="1" t="s">
         <v>1442</v>
       </c>
@@ -23075,7 +23075,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="243" spans="1:6">
+    <row r="243" spans="1:6" ht="15">
       <c r="A243" s="1" t="s">
         <v>1448</v>
       </c>
@@ -23095,7 +23095,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="244" spans="1:6">
+    <row r="244" spans="1:6" ht="15">
       <c r="A244" s="1" t="s">
         <v>1454</v>
       </c>
@@ -23115,7 +23115,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="245" spans="1:6">
+    <row r="245" spans="1:6" ht="15">
       <c r="A245" s="1" t="s">
         <v>1460</v>
       </c>
@@ -23135,7 +23135,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="246" spans="1:6">
+    <row r="246" spans="1:6" ht="15">
       <c r="A246" s="1" t="s">
         <v>1466</v>
       </c>
@@ -23155,7 +23155,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="247" spans="1:6">
+    <row r="247" spans="1:6" ht="15">
       <c r="A247" s="1" t="s">
         <v>1472</v>
       </c>
@@ -23175,7 +23175,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="248" spans="1:6">
+    <row r="248" spans="1:6" ht="15">
       <c r="A248" s="1" t="s">
         <v>1478</v>
       </c>
@@ -23195,7 +23195,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="249" spans="1:6">
+    <row r="249" spans="1:6" ht="15">
       <c r="A249" s="1" t="s">
         <v>1484</v>
       </c>
@@ -23215,7 +23215,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="250" spans="1:6">
+    <row r="250" spans="1:6" ht="15">
       <c r="A250" s="1" t="s">
         <v>1490</v>
       </c>
@@ -23235,7 +23235,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="251" spans="1:6">
+    <row r="251" spans="1:6" ht="15">
       <c r="A251" s="1" t="s">
         <v>1496</v>
       </c>
@@ -23255,7 +23255,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="252" spans="1:6">
+    <row r="252" spans="1:6" ht="15">
       <c r="A252" s="1" t="s">
         <v>1502</v>
       </c>
@@ -23275,7 +23275,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="253" spans="1:6">
+    <row r="253" spans="1:6" ht="15">
       <c r="A253" s="1" t="s">
         <v>1508</v>
       </c>
@@ -23295,7 +23295,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="254" spans="1:6">
+    <row r="254" spans="1:6" ht="15">
       <c r="A254" s="1" t="s">
         <v>1514</v>
       </c>
@@ -23315,7 +23315,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="255" spans="1:6">
+    <row r="255" spans="1:6" ht="15">
       <c r="A255" s="1" t="s">
         <v>1520</v>
       </c>
@@ -23335,7 +23335,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="256" spans="1:6">
+    <row r="256" spans="1:6" ht="15">
       <c r="A256" s="1" t="s">
         <v>1526</v>
       </c>
@@ -23355,7 +23355,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="257" spans="1:6">
+    <row r="257" spans="1:6" ht="15">
       <c r="A257" s="1" t="s">
         <v>1532</v>
       </c>
@@ -23375,7 +23375,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="258" spans="1:6">
+    <row r="258" spans="1:6" ht="15">
       <c r="A258" s="1" t="s">
         <v>1538</v>
       </c>
@@ -23395,7 +23395,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="259" spans="1:6">
+    <row r="259" spans="1:6" ht="15">
       <c r="A259" s="1" t="s">
         <v>1544</v>
       </c>
@@ -23415,7 +23415,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="260" spans="1:6">
+    <row r="260" spans="1:6" ht="15">
       <c r="A260" s="1" t="s">
         <v>1550</v>
       </c>
@@ -23435,7 +23435,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="261" spans="1:6">
+    <row r="261" spans="1:6" ht="15">
       <c r="A261" s="1" t="s">
         <v>1556</v>
       </c>
@@ -23455,7 +23455,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="262" spans="1:6">
+    <row r="262" spans="1:6" ht="15">
       <c r="A262" s="1" t="s">
         <v>1562</v>
       </c>
@@ -23475,7 +23475,7 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="263" spans="1:6">
+    <row r="263" spans="1:6" ht="15">
       <c r="A263" s="1" t="s">
         <v>1568</v>
       </c>
@@ -23495,7 +23495,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="264" spans="1:6">
+    <row r="264" spans="1:6" ht="15">
       <c r="A264" s="1" t="s">
         <v>1574</v>
       </c>
@@ -23515,7 +23515,7 @@
         <v>1579</v>
       </c>
     </row>
-    <row r="265" spans="1:6">
+    <row r="265" spans="1:6" ht="15">
       <c r="A265" s="1" t="s">
         <v>1580</v>
       </c>
@@ -23535,7 +23535,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="266" spans="1:6">
+    <row r="266" spans="1:6" ht="15">
       <c r="A266" s="1" t="s">
         <v>1586</v>
       </c>
@@ -23555,7 +23555,7 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="267" spans="1:6">
+    <row r="267" spans="1:6" ht="15">
       <c r="A267" s="1" t="s">
         <v>1592</v>
       </c>
@@ -23575,7 +23575,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="268" spans="1:6">
+    <row r="268" spans="1:6" ht="15">
       <c r="A268" s="1" t="s">
         <v>1598</v>
       </c>
@@ -23595,7 +23595,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="269" spans="1:6">
+    <row r="269" spans="1:6" ht="15">
       <c r="A269" s="1" t="s">
         <v>1604</v>
       </c>
@@ -23615,7 +23615,7 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="270" spans="1:6">
+    <row r="270" spans="1:6" ht="15">
       <c r="A270" s="1" t="s">
         <v>1610</v>
       </c>
@@ -23635,7 +23635,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="271" spans="1:6">
+    <row r="271" spans="1:6" ht="15">
       <c r="A271" s="1" t="s">
         <v>1616</v>
       </c>
@@ -23655,7 +23655,7 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="272" spans="1:6">
+    <row r="272" spans="1:6" ht="15">
       <c r="A272" s="1" t="s">
         <v>1622</v>
       </c>
@@ -23675,7 +23675,7 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="273" spans="1:6">
+    <row r="273" spans="1:6" ht="15">
       <c r="A273" s="1" t="s">
         <v>1628</v>
       </c>
@@ -23695,7 +23695,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="274" spans="1:6">
+    <row r="274" spans="1:6" ht="15">
       <c r="A274" s="1" t="s">
         <v>1634</v>
       </c>
@@ -23715,7 +23715,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="275" spans="1:6">
+    <row r="275" spans="1:6" ht="15">
       <c r="A275" s="1" t="s">
         <v>1640</v>
       </c>
@@ -23735,7 +23735,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="276" spans="1:6">
+    <row r="276" spans="1:6" ht="15">
       <c r="A276" s="1" t="s">
         <v>1646</v>
       </c>
@@ -23755,7 +23755,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="277" spans="1:6">
+    <row r="277" spans="1:6" ht="15">
       <c r="A277" s="1" t="s">
         <v>1652</v>
       </c>
@@ -23775,7 +23775,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="278" spans="1:6">
+    <row r="278" spans="1:6" ht="15">
       <c r="A278" s="1" t="s">
         <v>1658</v>
       </c>
@@ -23795,7 +23795,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="279" spans="1:6">
+    <row r="279" spans="1:6" ht="15">
       <c r="A279" s="1" t="s">
         <v>1664</v>
       </c>
@@ -23815,7 +23815,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="280" spans="1:6">
+    <row r="280" spans="1:6" ht="15">
       <c r="A280" s="1" t="s">
         <v>1670</v>
       </c>
@@ -23835,7 +23835,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="281" spans="1:6">
+    <row r="281" spans="1:6" ht="15">
       <c r="A281" s="1" t="s">
         <v>1676</v>
       </c>
@@ -23855,7 +23855,7 @@
         <v>1681</v>
       </c>
     </row>
-    <row r="282" spans="1:6">
+    <row r="282" spans="1:6" ht="15">
       <c r="A282" s="1" t="s">
         <v>1682</v>
       </c>
@@ -23875,7 +23875,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="283" spans="1:6">
+    <row r="283" spans="1:6" ht="15">
       <c r="A283" s="1" t="s">
         <v>1688</v>
       </c>
@@ -23895,7 +23895,7 @@
         <v>1693</v>
       </c>
     </row>
-    <row r="284" spans="1:6">
+    <row r="284" spans="1:6" ht="15">
       <c r="A284" s="1" t="s">
         <v>1694</v>
       </c>
@@ -23915,7 +23915,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="285" spans="1:6">
+    <row r="285" spans="1:6" ht="15">
       <c r="A285" s="1" t="s">
         <v>1700</v>
       </c>
@@ -23935,7 +23935,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="286" spans="1:6">
+    <row r="286" spans="1:6" ht="15">
       <c r="A286" s="1" t="s">
         <v>1706</v>
       </c>
@@ -23955,7 +23955,7 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="287" spans="1:6">
+    <row r="287" spans="1:6" ht="15">
       <c r="A287" s="1" t="s">
         <v>1712</v>
       </c>
@@ -23975,7 +23975,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="288" spans="1:6">
+    <row r="288" spans="1:6" ht="15">
       <c r="A288" s="1" t="s">
         <v>1718</v>
       </c>
@@ -23995,7 +23995,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="289" spans="1:6">
+    <row r="289" spans="1:6" ht="15">
       <c r="A289" s="1" t="s">
         <v>1724</v>
       </c>
@@ -24015,7 +24015,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="290" spans="1:6">
+    <row r="290" spans="1:6" ht="15">
       <c r="A290" s="2" t="s">
         <v>1730</v>
       </c>
@@ -24035,7 +24035,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="291" spans="1:6">
+    <row r="291" spans="1:6" ht="15">
       <c r="A291" s="1" t="s">
         <v>1736</v>
       </c>
@@ -24055,7 +24055,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="292" spans="1:6">
+    <row r="292" spans="1:6" ht="15">
       <c r="A292" s="1" t="s">
         <v>1742</v>
       </c>
@@ -24075,7 +24075,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="293" spans="1:6">
+    <row r="293" spans="1:6" ht="15">
       <c r="A293" s="1" t="s">
         <v>439</v>
       </c>
@@ -24095,7 +24095,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="294" spans="1:6">
+    <row r="294" spans="1:6" ht="15">
       <c r="A294" s="1" t="s">
         <v>1753</v>
       </c>
@@ -24115,7 +24115,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="295" spans="1:6">
+    <row r="295" spans="1:6" ht="15">
       <c r="A295" s="1" t="s">
         <v>1759</v>
       </c>
@@ -24135,7 +24135,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="296" spans="1:6">
+    <row r="296" spans="1:6" ht="15">
       <c r="A296" s="1" t="s">
         <v>1765</v>
       </c>
@@ -24155,7 +24155,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="297" spans="1:6">
+    <row r="297" spans="1:6" ht="15">
       <c r="A297" s="1" t="s">
         <v>1771</v>
       </c>
@@ -24175,7 +24175,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="298" spans="1:6">
+    <row r="298" spans="1:6" ht="15">
       <c r="A298" s="1" t="s">
         <v>1777</v>
       </c>
@@ -24195,7 +24195,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="299" spans="1:6">
+    <row r="299" spans="1:6" ht="15">
       <c r="A299" s="1" t="s">
         <v>1783</v>
       </c>
@@ -24215,7 +24215,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="300" spans="1:6">
+    <row r="300" spans="1:6" ht="15">
       <c r="A300" s="1" t="s">
         <v>1789</v>
       </c>
@@ -24235,7 +24235,7 @@
         <v>1794</v>
       </c>
     </row>
-    <row r="301" spans="1:6">
+    <row r="301" spans="1:6" ht="15">
       <c r="A301" s="1" t="s">
         <v>1795</v>
       </c>
@@ -24255,7 +24255,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="302" spans="1:6">
+    <row r="302" spans="1:6" ht="15">
       <c r="A302" s="1" t="s">
         <v>1801</v>
       </c>
@@ -24275,7 +24275,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="303" spans="1:6">
+    <row r="303" spans="1:6" ht="15">
       <c r="A303" s="1" t="s">
         <v>1807</v>
       </c>
@@ -24295,7 +24295,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="304" spans="1:6">
+    <row r="304" spans="1:6" ht="15">
       <c r="A304" s="1" t="s">
         <v>1813</v>
       </c>
@@ -24315,7 +24315,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="305" spans="1:6">
+    <row r="305" spans="1:6" ht="15">
       <c r="A305" s="1" t="s">
         <v>1819</v>
       </c>
@@ -24335,7 +24335,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="306" spans="1:6">
+    <row r="306" spans="1:6" ht="15">
       <c r="A306" s="1" t="s">
         <v>1825</v>
       </c>
@@ -24355,7 +24355,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="307" spans="1:6">
+    <row r="307" spans="1:6" ht="15">
       <c r="A307" s="1" t="s">
         <v>1831</v>
       </c>
@@ -24375,7 +24375,7 @@
         <v>1836</v>
       </c>
     </row>
-    <row r="308" spans="1:6">
+    <row r="308" spans="1:6" ht="15">
       <c r="A308" s="1" t="s">
         <v>1837</v>
       </c>
@@ -24395,7 +24395,7 @@
         <v>1842</v>
       </c>
     </row>
-    <row r="309" spans="1:6">
+    <row r="309" spans="1:6" ht="15">
       <c r="A309" s="1" t="s">
         <v>1843</v>
       </c>
@@ -24415,7 +24415,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="310" spans="1:6">
+    <row r="310" spans="1:6" ht="15">
       <c r="A310" s="1" t="s">
         <v>1849</v>
       </c>
@@ -24435,7 +24435,7 @@
         <v>1854</v>
       </c>
     </row>
-    <row r="311" spans="1:6">
+    <row r="311" spans="1:6" ht="15">
       <c r="A311" s="1" t="s">
         <v>1855</v>
       </c>
@@ -24455,7 +24455,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="312" spans="1:6">
+    <row r="312" spans="1:6" ht="15">
       <c r="A312" s="1" t="s">
         <v>1861</v>
       </c>
@@ -24475,7 +24475,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="313" spans="1:6">
+    <row r="313" spans="1:6" ht="15">
       <c r="A313" s="1" t="s">
         <v>1867</v>
       </c>
@@ -24495,7 +24495,7 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="314" spans="1:6">
+    <row r="314" spans="1:6" ht="15">
       <c r="A314" s="1" t="s">
         <v>1873</v>
       </c>
@@ -24515,7 +24515,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="315" spans="1:6">
+    <row r="315" spans="1:6" ht="15">
       <c r="A315" s="1" t="s">
         <v>1879</v>
       </c>
@@ -24535,7 +24535,7 @@
         <v>1884</v>
       </c>
     </row>
-    <row r="316" spans="1:6">
+    <row r="316" spans="1:6" ht="15">
       <c r="A316" s="1" t="s">
         <v>1885</v>
       </c>
@@ -24555,7 +24555,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="317" spans="1:6">
+    <row r="317" spans="1:6" ht="15">
       <c r="A317" s="1" t="s">
         <v>1891</v>
       </c>
@@ -24575,7 +24575,7 @@
         <v>1896</v>
       </c>
     </row>
-    <row r="318" spans="1:6">
+    <row r="318" spans="1:6" ht="15">
       <c r="A318" s="1" t="s">
         <v>1897</v>
       </c>
@@ -24595,7 +24595,7 @@
         <v>1901</v>
       </c>
     </row>
-    <row r="319" spans="1:6">
+    <row r="319" spans="1:6" ht="15">
       <c r="A319" s="1" t="s">
         <v>1902</v>
       </c>
@@ -24615,7 +24615,7 @@
         <v>1907</v>
       </c>
     </row>
-    <row r="320" spans="1:6">
+    <row r="320" spans="1:6" ht="15">
       <c r="A320" s="1" t="s">
         <v>1908</v>
       </c>
@@ -24635,7 +24635,7 @@
         <v>1913</v>
       </c>
     </row>
-    <row r="321" spans="1:6">
+    <row r="321" spans="1:6" ht="15">
       <c r="A321" s="1" t="s">
         <v>1914</v>
       </c>
@@ -24655,7 +24655,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="322" spans="1:6">
+    <row r="322" spans="1:6" ht="15">
       <c r="A322" s="1" t="s">
         <v>1920</v>
       </c>
@@ -24675,7 +24675,7 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="323" spans="1:6">
+    <row r="323" spans="1:6" ht="15">
       <c r="A323" s="1" t="s">
         <v>1926</v>
       </c>
@@ -24695,7 +24695,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="324" spans="1:6">
+    <row r="324" spans="1:6" ht="15">
       <c r="A324" s="1" t="s">
         <v>1932</v>
       </c>
@@ -24715,7 +24715,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="325" spans="1:6">
+    <row r="325" spans="1:6" ht="15">
       <c r="A325" s="1" t="s">
         <v>1938</v>
       </c>
@@ -24735,7 +24735,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="326" spans="1:6">
+    <row r="326" spans="1:6" ht="15">
       <c r="A326" s="1" t="s">
         <v>1944</v>
       </c>
@@ -24755,7 +24755,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="327" spans="1:6">
+    <row r="327" spans="1:6" ht="15">
       <c r="A327" s="1" t="s">
         <v>1950</v>
       </c>
@@ -24775,7 +24775,7 @@
         <v>1955</v>
       </c>
     </row>
-    <row r="328" spans="1:6">
+    <row r="328" spans="1:6" ht="15">
       <c r="A328" s="1" t="s">
         <v>1956</v>
       </c>
@@ -24795,7 +24795,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="329" spans="1:6">
+    <row r="329" spans="1:6" ht="15">
       <c r="A329" s="1" t="s">
         <v>1962</v>
       </c>
@@ -24815,7 +24815,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="330" spans="1:6">
+    <row r="330" spans="1:6" ht="15">
       <c r="A330" s="1" t="s">
         <v>1967</v>
       </c>
@@ -24835,7 +24835,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="331" spans="1:6">
+    <row r="331" spans="1:6" ht="15">
       <c r="A331" s="1" t="s">
         <v>1973</v>
       </c>
@@ -24855,7 +24855,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="332" spans="1:6">
+    <row r="332" spans="1:6" ht="15">
       <c r="A332" s="1" t="s">
         <v>1979</v>
       </c>
@@ -24875,7 +24875,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="333" spans="1:6">
+    <row r="333" spans="1:6" ht="15">
       <c r="A333" s="1" t="s">
         <v>1985</v>
       </c>
@@ -24895,7 +24895,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="334" spans="1:6">
+    <row r="334" spans="1:6" ht="15">
       <c r="A334" s="1" t="s">
         <v>1991</v>
       </c>
@@ -24915,7 +24915,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="335" spans="1:6">
+    <row r="335" spans="1:6" ht="15">
       <c r="A335" s="1" t="s">
         <v>1997</v>
       </c>
@@ -24935,7 +24935,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="336" spans="1:6">
+    <row r="336" spans="1:6" ht="15">
       <c r="A336" s="1" t="s">
         <v>2003</v>
       </c>
@@ -24955,7 +24955,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="337" spans="1:6">
+    <row r="337" spans="1:6" ht="15">
       <c r="A337" s="1" t="s">
         <v>1956</v>
       </c>
@@ -24975,7 +24975,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="338" spans="1:6">
+    <row r="338" spans="1:6" ht="15">
       <c r="A338" s="1" t="s">
         <v>2014</v>
       </c>
@@ -24995,7 +24995,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="339" spans="1:6">
+    <row r="339" spans="1:6" ht="15">
       <c r="A339" s="1" t="s">
         <v>2020</v>
       </c>
@@ -25015,7 +25015,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="340" spans="1:6">
+    <row r="340" spans="1:6" ht="15">
       <c r="A340" s="1" t="s">
         <v>2026</v>
       </c>
@@ -25035,7 +25035,7 @@
         <v>2031</v>
       </c>
     </row>
-    <row r="341" spans="1:6">
+    <row r="341" spans="1:6" ht="15">
       <c r="A341" s="1" t="s">
         <v>2032</v>
       </c>
@@ -25055,7 +25055,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="342" spans="1:6">
+    <row r="342" spans="1:6" ht="15">
       <c r="A342" s="1" t="s">
         <v>2038</v>
       </c>
@@ -25075,7 +25075,7 @@
         <v>2043</v>
       </c>
     </row>
-    <row r="343" spans="1:6">
+    <row r="343" spans="1:6" ht="15">
       <c r="A343" s="1" t="s">
         <v>2044</v>
       </c>
@@ -25095,7 +25095,7 @@
         <v>2049</v>
       </c>
     </row>
-    <row r="344" spans="1:6">
+    <row r="344" spans="1:6" ht="15">
       <c r="A344" s="1" t="s">
         <v>2050</v>
       </c>
@@ -25115,7 +25115,7 @@
         <v>2055</v>
       </c>
     </row>
-    <row r="345" spans="1:6">
+    <row r="345" spans="1:6" ht="15">
       <c r="A345" s="1" t="s">
         <v>2056</v>
       </c>
@@ -25135,7 +25135,7 @@
         <v>2061</v>
       </c>
     </row>
-    <row r="346" spans="1:6">
+    <row r="346" spans="1:6" ht="15">
       <c r="A346" s="1" t="s">
         <v>2062</v>
       </c>
@@ -25155,7 +25155,7 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="347" spans="1:6">
+    <row r="347" spans="1:6" ht="15">
       <c r="A347" s="1" t="s">
         <v>2068</v>
       </c>
@@ -25175,7 +25175,7 @@
         <v>2073</v>
       </c>
     </row>
-    <row r="348" spans="1:6">
+    <row r="348" spans="1:6" ht="15">
       <c r="A348" s="1" t="s">
         <v>2074</v>
       </c>
@@ -25195,7 +25195,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="349" spans="1:6">
+    <row r="349" spans="1:6" ht="15">
       <c r="A349" s="1" t="s">
         <v>2080</v>
       </c>
@@ -25215,7 +25215,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="350" spans="1:6">
+    <row r="350" spans="1:6" ht="15">
       <c r="A350" s="1" t="s">
         <v>2086</v>
       </c>
@@ -25235,7 +25235,7 @@
         <v>2091</v>
       </c>
     </row>
-    <row r="351" spans="1:6">
+    <row r="351" spans="1:6" ht="15">
       <c r="A351" s="1" t="s">
         <v>2092</v>
       </c>
@@ -25255,7 +25255,7 @@
         <v>2097</v>
       </c>
     </row>
-    <row r="352" spans="1:6">
+    <row r="352" spans="1:6" ht="15">
       <c r="A352" s="2" t="s">
         <v>2098</v>
       </c>
@@ -25275,7 +25275,7 @@
         <v>2103</v>
       </c>
     </row>
-    <row r="353" spans="1:6">
+    <row r="353" spans="1:6" ht="15">
       <c r="A353" s="1" t="s">
         <v>2104</v>
       </c>
@@ -25295,7 +25295,7 @@
         <v>2109</v>
       </c>
     </row>
-    <row r="354" spans="1:6">
+    <row r="354" spans="1:6" ht="15">
       <c r="A354" s="1" t="s">
         <v>2110</v>
       </c>
@@ -25315,7 +25315,7 @@
         <v>2115</v>
       </c>
     </row>
-    <row r="355" spans="1:6">
+    <row r="355" spans="1:6" ht="15">
       <c r="A355" s="1" t="s">
         <v>2116</v>
       </c>
@@ -25335,7 +25335,7 @@
         <v>2121</v>
       </c>
     </row>
-    <row r="356" spans="1:6">
+    <row r="356" spans="1:6" ht="15">
       <c r="A356" s="1" t="s">
         <v>2122</v>
       </c>
@@ -25355,7 +25355,7 @@
         <v>2127</v>
       </c>
     </row>
-    <row r="357" spans="1:6">
+    <row r="357" spans="1:6" ht="15">
       <c r="A357" s="1" t="s">
         <v>2128</v>
       </c>
@@ -25375,7 +25375,7 @@
         <v>2133</v>
       </c>
     </row>
-    <row r="358" spans="1:6">
+    <row r="358" spans="1:6" ht="15">
       <c r="A358" s="1" t="s">
         <v>2134</v>
       </c>
@@ -25395,7 +25395,7 @@
         <v>2139</v>
       </c>
     </row>
-    <row r="359" spans="1:6">
+    <row r="359" spans="1:6" ht="15">
       <c r="A359" s="1" t="s">
         <v>2140</v>
       </c>
@@ -25415,7 +25415,7 @@
         <v>2145</v>
       </c>
     </row>
-    <row r="360" spans="1:6">
+    <row r="360" spans="1:6" ht="15">
       <c r="A360" s="1" t="s">
         <v>2146</v>
       </c>
@@ -25435,7 +25435,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="361" spans="1:6">
+    <row r="361" spans="1:6" ht="15">
       <c r="A361" s="1" t="s">
         <v>2152</v>
       </c>
@@ -25455,7 +25455,7 @@
         <v>2157</v>
       </c>
     </row>
-    <row r="362" spans="1:6">
+    <row r="362" spans="1:6" ht="15">
       <c r="A362" s="1" t="s">
         <v>2158</v>
       </c>
@@ -25475,7 +25475,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="363" spans="1:6">
+    <row r="363" spans="1:6" ht="15">
       <c r="A363" s="1" t="s">
         <v>2164</v>
       </c>
@@ -25495,7 +25495,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="364" spans="1:6">
+    <row r="364" spans="1:6" ht="15">
       <c r="A364" s="1" t="s">
         <v>2170</v>
       </c>
@@ -25515,7 +25515,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="365" spans="1:6">
+    <row r="365" spans="1:6" ht="15">
       <c r="A365" s="1" t="s">
         <v>2176</v>
       </c>
@@ -25535,7 +25535,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="366" spans="1:6">
+    <row r="366" spans="1:6" ht="15">
       <c r="A366" s="1" t="s">
         <v>2182</v>
       </c>
@@ -25555,7 +25555,7 @@
         <v>2187</v>
       </c>
     </row>
-    <row r="367" spans="1:6">
+    <row r="367" spans="1:6" ht="15">
       <c r="A367" s="1" t="s">
         <v>2188</v>
       </c>
@@ -25575,7 +25575,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="368" spans="1:6">
+    <row r="368" spans="1:6" ht="15">
       <c r="A368" s="1" t="s">
         <v>2194</v>
       </c>
@@ -25595,7 +25595,7 @@
         <v>2199</v>
       </c>
     </row>
-    <row r="369" spans="1:6">
+    <row r="369" spans="1:6" ht="15">
       <c r="A369" s="1" t="s">
         <v>2200</v>
       </c>
@@ -25615,7 +25615,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="370" spans="1:6">
+    <row r="370" spans="1:6" ht="15">
       <c r="A370" s="1" t="s">
         <v>2206</v>
       </c>
@@ -25635,7 +25635,7 @@
         <v>2211</v>
       </c>
     </row>
-    <row r="371" spans="1:6">
+    <row r="371" spans="1:6" ht="15">
       <c r="A371" s="1" t="s">
         <v>2212</v>
       </c>
@@ -25655,7 +25655,7 @@
         <v>2217</v>
       </c>
     </row>
-    <row r="372" spans="1:6">
+    <row r="372" spans="1:6" ht="15">
       <c r="A372" s="1" t="s">
         <v>2218</v>
       </c>
@@ -25675,7 +25675,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="373" spans="1:6">
+    <row r="373" spans="1:6" ht="15">
       <c r="A373" s="1" t="s">
         <v>2224</v>
       </c>
@@ -25695,7 +25695,7 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="374" spans="1:6">
+    <row r="374" spans="1:6" ht="15">
       <c r="A374" s="1" t="s">
         <v>2230</v>
       </c>
@@ -25715,7 +25715,7 @@
         <v>2235</v>
       </c>
     </row>
-    <row r="375" spans="1:6">
+    <row r="375" spans="1:6" ht="15">
       <c r="A375" s="1" t="s">
         <v>2236</v>
       </c>
@@ -25735,7 +25735,7 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="376" spans="1:6">
+    <row r="376" spans="1:6" ht="15">
       <c r="A376" s="1" t="s">
         <v>2241</v>
       </c>
@@ -25755,7 +25755,7 @@
         <v>2246</v>
       </c>
     </row>
-    <row r="377" spans="1:6">
+    <row r="377" spans="1:6" ht="15">
       <c r="A377" s="1" t="s">
         <v>2247</v>
       </c>
@@ -25775,7 +25775,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="378" spans="1:6">
+    <row r="378" spans="1:6" ht="15">
       <c r="A378" s="1" t="s">
         <v>2253</v>
       </c>
@@ -25795,7 +25795,7 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="379" spans="1:6">
+    <row r="379" spans="1:6" ht="15">
       <c r="A379" s="1" t="s">
         <v>2259</v>
       </c>
@@ -25815,7 +25815,7 @@
         <v>2264</v>
       </c>
     </row>
-    <row r="380" spans="1:6">
+    <row r="380" spans="1:6" ht="15">
       <c r="A380" s="1" t="s">
         <v>2265</v>
       </c>
@@ -25835,7 +25835,7 @@
         <v>2270</v>
       </c>
     </row>
-    <row r="381" spans="1:6">
+    <row r="381" spans="1:6" ht="15">
       <c r="A381" s="1" t="s">
         <v>2271</v>
       </c>
@@ -25855,7 +25855,7 @@
         <v>2276</v>
       </c>
     </row>
-    <row r="382" spans="1:6">
+    <row r="382" spans="1:6" ht="15">
       <c r="A382" s="1" t="s">
         <v>2277</v>
       </c>
@@ -25875,7 +25875,7 @@
         <v>2282</v>
       </c>
     </row>
-    <row r="383" spans="1:6">
+    <row r="383" spans="1:6" ht="15">
       <c r="A383" s="1" t="s">
         <v>2283</v>
       </c>
@@ -25895,7 +25895,7 @@
         <v>2288</v>
       </c>
     </row>
-    <row r="384" spans="1:6">
+    <row r="384" spans="1:6" ht="15">
       <c r="A384" s="1" t="s">
         <v>2289</v>
       </c>
@@ -25915,7 +25915,7 @@
         <v>2294</v>
       </c>
     </row>
-    <row r="385" spans="1:6">
+    <row r="385" spans="1:6" ht="15">
       <c r="A385" s="1" t="s">
         <v>2295</v>
       </c>
@@ -25935,7 +25935,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="386" spans="1:6">
+    <row r="386" spans="1:6" ht="15">
       <c r="A386" s="1" t="s">
         <v>2301</v>
       </c>
@@ -25955,7 +25955,7 @@
         <v>2306</v>
       </c>
     </row>
-    <row r="387" spans="1:6">
+    <row r="387" spans="1:6" ht="15">
       <c r="A387" s="1" t="s">
         <v>2307</v>
       </c>
@@ -25975,7 +25975,7 @@
         <v>2312</v>
       </c>
     </row>
-    <row r="388" spans="1:6">
+    <row r="388" spans="1:6" ht="15">
       <c r="A388" s="1" t="s">
         <v>2313</v>
       </c>
@@ -25995,7 +25995,7 @@
         <v>2318</v>
       </c>
     </row>
-    <row r="389" spans="1:6">
+    <row r="389" spans="1:6" ht="15">
       <c r="A389" s="1" t="s">
         <v>2319</v>
       </c>
@@ -26015,7 +26015,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="390" spans="1:6">
+    <row r="390" spans="1:6" ht="15">
       <c r="A390" s="1" t="s">
         <v>2325</v>
       </c>
@@ -26035,7 +26035,7 @@
         <v>2330</v>
       </c>
     </row>
-    <row r="391" spans="1:6">
+    <row r="391" spans="1:6" ht="15">
       <c r="A391" s="1" t="s">
         <v>2331</v>
       </c>
@@ -26055,7 +26055,7 @@
         <v>2336</v>
       </c>
     </row>
-    <row r="392" spans="1:6">
+    <row r="392" spans="1:6" ht="15">
       <c r="A392" s="1" t="s">
         <v>2337</v>
       </c>
@@ -26075,7 +26075,7 @@
         <v>2342</v>
       </c>
     </row>
-    <row r="393" spans="1:6">
+    <row r="393" spans="1:6" ht="15">
       <c r="A393" s="1" t="s">
         <v>2343</v>
       </c>
@@ -26095,7 +26095,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="394" spans="1:6">
+    <row r="394" spans="1:6" ht="15">
       <c r="A394" s="1" t="s">
         <v>2349</v>
       </c>
@@ -26115,7 +26115,7 @@
         <v>2354</v>
       </c>
     </row>
-    <row r="395" spans="1:6">
+    <row r="395" spans="1:6" ht="15">
       <c r="A395" s="1" t="s">
         <v>2355</v>
       </c>
@@ -26135,7 +26135,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="396" spans="1:6">
+    <row r="396" spans="1:6" ht="15">
       <c r="A396" s="1" t="s">
         <v>2361</v>
       </c>
@@ -26155,7 +26155,7 @@
         <v>2366</v>
       </c>
     </row>
-    <row r="397" spans="1:6">
+    <row r="397" spans="1:6" ht="15">
       <c r="A397" s="1" t="s">
         <v>2367</v>
       </c>
@@ -26175,7 +26175,7 @@
         <v>2372</v>
       </c>
     </row>
-    <row r="398" spans="1:6">
+    <row r="398" spans="1:6" ht="15">
       <c r="A398" s="1" t="s">
         <v>2373</v>
       </c>
@@ -26195,7 +26195,7 @@
         <v>2378</v>
       </c>
     </row>
-    <row r="399" spans="1:6">
+    <row r="399" spans="1:6" ht="15">
       <c r="A399" s="1" t="s">
         <v>2379</v>
       </c>
@@ -26215,7 +26215,7 @@
         <v>2384</v>
       </c>
     </row>
-    <row r="400" spans="1:6">
+    <row r="400" spans="1:6" ht="15">
       <c r="A400" s="1" t="s">
         <v>2385</v>
       </c>
@@ -26235,7 +26235,7 @@
         <v>2390</v>
       </c>
     </row>
-    <row r="401" spans="1:6">
+    <row r="401" spans="1:6" ht="15">
       <c r="A401" s="1" t="s">
         <v>2391</v>
       </c>
@@ -30135,7 +30135,7 @@
         <v>3545</v>
       </c>
     </row>
-    <row r="596" spans="1:6">
+    <row r="596" spans="1:6" ht="16">
       <c r="A596" s="1" t="s">
         <v>3546</v>
       </c>
@@ -30275,7 +30275,7 @@
         <v>3586</v>
       </c>
     </row>
-    <row r="603" spans="1:6">
+    <row r="603" spans="1:6" ht="15">
       <c r="A603" s="1" t="s">
         <v>3587</v>
       </c>
@@ -30295,7 +30295,7 @@
         <v>3592</v>
       </c>
     </row>
-    <row r="604" spans="1:6">
+    <row r="604" spans="1:6" ht="15">
       <c r="A604" s="1" t="s">
         <v>3593</v>
       </c>
@@ -30315,7 +30315,7 @@
         <v>3598</v>
       </c>
     </row>
-    <row r="605" spans="1:6">
+    <row r="605" spans="1:6" ht="15">
       <c r="A605" s="1" t="s">
         <v>3599</v>
       </c>
@@ -30335,7 +30335,7 @@
         <v>3604</v>
       </c>
     </row>
-    <row r="606" spans="1:6">
+    <row r="606" spans="1:6" ht="15">
       <c r="A606" s="1" t="s">
         <v>3605</v>
       </c>
@@ -30355,7 +30355,7 @@
         <v>3610</v>
       </c>
     </row>
-    <row r="607" spans="1:6">
+    <row r="607" spans="1:6" ht="15">
       <c r="A607" s="1" t="s">
         <v>3611</v>
       </c>
@@ -30375,7 +30375,7 @@
         <v>3616</v>
       </c>
     </row>
-    <row r="608" spans="1:6">
+    <row r="608" spans="1:6" ht="15">
       <c r="A608" s="1" t="s">
         <v>3617</v>
       </c>
@@ -30395,7 +30395,7 @@
         <v>3622</v>
       </c>
     </row>
-    <row r="609" spans="1:6">
+    <row r="609" spans="1:6" ht="15">
       <c r="A609" s="1" t="s">
         <v>3623</v>
       </c>
@@ -30415,7 +30415,7 @@
         <v>3628</v>
       </c>
     </row>
-    <row r="610" spans="1:6">
+    <row r="610" spans="1:6" ht="15">
       <c r="A610" s="1" t="s">
         <v>3629</v>
       </c>
@@ -30435,7 +30435,7 @@
         <v>3634</v>
       </c>
     </row>
-    <row r="611" spans="1:6">
+    <row r="611" spans="1:6" ht="15">
       <c r="A611" s="1" t="s">
         <v>3635</v>
       </c>
@@ -30455,7 +30455,7 @@
         <v>3640</v>
       </c>
     </row>
-    <row r="612" spans="1:6">
+    <row r="612" spans="1:6" ht="15">
       <c r="A612" s="1" t="s">
         <v>3641</v>
       </c>
@@ -30475,7 +30475,7 @@
         <v>3646</v>
       </c>
     </row>
-    <row r="613" spans="1:6">
+    <row r="613" spans="1:6" ht="15">
       <c r="A613" s="1" t="s">
         <v>3647</v>
       </c>
@@ -30495,7 +30495,7 @@
         <v>3652</v>
       </c>
     </row>
-    <row r="614" spans="1:6">
+    <row r="614" spans="1:6" ht="15">
       <c r="A614" s="1" t="s">
         <v>3653</v>
       </c>
@@ -30515,7 +30515,7 @@
         <v>3658</v>
       </c>
     </row>
-    <row r="615" spans="1:6">
+    <row r="615" spans="1:6" ht="15">
       <c r="A615" s="1" t="s">
         <v>3659</v>
       </c>
@@ -30535,7 +30535,7 @@
         <v>3664</v>
       </c>
     </row>
-    <row r="616" spans="1:6">
+    <row r="616" spans="1:6" ht="15">
       <c r="A616" s="1" t="s">
         <v>3665</v>
       </c>
@@ -30555,7 +30555,7 @@
         <v>3670</v>
       </c>
     </row>
-    <row r="617" spans="1:6">
+    <row r="617" spans="1:6" ht="15">
       <c r="A617" s="1" t="s">
         <v>3671</v>
       </c>
@@ -30575,7 +30575,7 @@
         <v>3676</v>
       </c>
     </row>
-    <row r="618" spans="1:6">
+    <row r="618" spans="1:6" ht="15">
       <c r="A618" s="1" t="s">
         <v>3677</v>
       </c>
@@ -30595,7 +30595,7 @@
         <v>3682</v>
       </c>
     </row>
-    <row r="619" spans="1:6">
+    <row r="619" spans="1:6" ht="15">
       <c r="A619" s="1" t="s">
         <v>3683</v>
       </c>
@@ -30615,7 +30615,7 @@
         <v>3688</v>
       </c>
     </row>
-    <row r="620" spans="1:6">
+    <row r="620" spans="1:6" ht="15">
       <c r="A620" s="1" t="s">
         <v>3689</v>
       </c>
@@ -30635,7 +30635,7 @@
         <v>3694</v>
       </c>
     </row>
-    <row r="621" spans="1:6">
+    <row r="621" spans="1:6" ht="15">
       <c r="A621" s="1" t="s">
         <v>3695</v>
       </c>
@@ -30655,7 +30655,7 @@
         <v>3700</v>
       </c>
     </row>
-    <row r="622" spans="1:6">
+    <row r="622" spans="1:6" ht="15">
       <c r="A622" s="1" t="s">
         <v>3701</v>
       </c>
@@ -30675,7 +30675,7 @@
         <v>3706</v>
       </c>
     </row>
-    <row r="623" spans="1:6">
+    <row r="623" spans="1:6" ht="15">
       <c r="A623" s="1" t="s">
         <v>3707</v>
       </c>
@@ -30695,7 +30695,7 @@
         <v>3712</v>
       </c>
     </row>
-    <row r="624" spans="1:6">
+    <row r="624" spans="1:6" ht="15">
       <c r="A624" s="1" t="s">
         <v>3713</v>
       </c>
@@ -30715,7 +30715,7 @@
         <v>3718</v>
       </c>
     </row>
-    <row r="625" spans="1:6">
+    <row r="625" spans="1:6" ht="15">
       <c r="A625" s="1" t="s">
         <v>3719</v>
       </c>
@@ -30735,7 +30735,7 @@
         <v>3724</v>
       </c>
     </row>
-    <row r="626" spans="1:6">
+    <row r="626" spans="1:6" ht="15">
       <c r="A626" s="1" t="s">
         <v>3725</v>
       </c>
@@ -30755,7 +30755,7 @@
         <v>3730</v>
       </c>
     </row>
-    <row r="627" spans="1:6">
+    <row r="627" spans="1:6" ht="15">
       <c r="A627" s="1" t="s">
         <v>3731</v>
       </c>
@@ -30775,7 +30775,7 @@
         <v>3736</v>
       </c>
     </row>
-    <row r="628" spans="1:6">
+    <row r="628" spans="1:6" ht="15">
       <c r="A628" s="1" t="s">
         <v>3737</v>
       </c>
@@ -30795,7 +30795,7 @@
         <v>3742</v>
       </c>
     </row>
-    <row r="629" spans="1:6">
+    <row r="629" spans="1:6" ht="15">
       <c r="A629" s="1" t="s">
         <v>3743</v>
       </c>
@@ -30815,7 +30815,7 @@
         <v>3748</v>
       </c>
     </row>
-    <row r="630" spans="1:6">
+    <row r="630" spans="1:6" ht="15">
       <c r="A630" s="1" t="s">
         <v>3749</v>
       </c>
@@ -30835,7 +30835,7 @@
         <v>3754</v>
       </c>
     </row>
-    <row r="631" spans="1:6">
+    <row r="631" spans="1:6" ht="15">
       <c r="A631" s="1" t="s">
         <v>3755</v>
       </c>
@@ -30855,7 +30855,7 @@
         <v>3760</v>
       </c>
     </row>
-    <row r="632" spans="1:6">
+    <row r="632" spans="1:6" ht="15">
       <c r="A632" s="1" t="s">
         <v>3761</v>
       </c>
@@ -30875,7 +30875,7 @@
         <v>3766</v>
       </c>
     </row>
-    <row r="633" spans="1:6">
+    <row r="633" spans="1:6" ht="15">
       <c r="A633" s="1" t="s">
         <v>3767</v>
       </c>
@@ -30895,7 +30895,7 @@
         <v>3772</v>
       </c>
     </row>
-    <row r="634" spans="1:6">
+    <row r="634" spans="1:6" ht="15">
       <c r="A634" s="1" t="s">
         <v>3773</v>
       </c>
@@ -30915,7 +30915,7 @@
         <v>3778</v>
       </c>
     </row>
-    <row r="635" spans="1:6">
+    <row r="635" spans="1:6" ht="15">
       <c r="A635" s="1" t="s">
         <v>3779</v>
       </c>
@@ -30935,7 +30935,7 @@
         <v>3784</v>
       </c>
     </row>
-    <row r="636" spans="1:6">
+    <row r="636" spans="1:6" ht="15">
       <c r="A636" s="1" t="s">
         <v>3785</v>
       </c>
@@ -30955,7 +30955,7 @@
         <v>3789</v>
       </c>
     </row>
-    <row r="637" spans="1:6">
+    <row r="637" spans="1:6" ht="15">
       <c r="A637" s="1" t="s">
         <v>3790</v>
       </c>
@@ -30975,7 +30975,7 @@
         <v>3795</v>
       </c>
     </row>
-    <row r="638" spans="1:6">
+    <row r="638" spans="1:6" ht="15">
       <c r="A638" s="1" t="s">
         <v>3796</v>
       </c>
@@ -30995,7 +30995,7 @@
         <v>3801</v>
       </c>
     </row>
-    <row r="639" spans="1:6">
+    <row r="639" spans="1:6" ht="15">
       <c r="A639" s="1" t="s">
         <v>3802</v>
       </c>
@@ -31015,7 +31015,7 @@
         <v>3807</v>
       </c>
     </row>
-    <row r="640" spans="1:6">
+    <row r="640" spans="1:6" ht="15">
       <c r="A640" s="1" t="s">
         <v>3808</v>
       </c>
@@ -31035,7 +31035,7 @@
         <v>3813</v>
       </c>
     </row>
-    <row r="641" spans="1:6">
+    <row r="641" spans="1:6" ht="15">
       <c r="A641" s="1" t="s">
         <v>3814</v>
       </c>
@@ -31055,7 +31055,7 @@
         <v>3819</v>
       </c>
     </row>
-    <row r="642" spans="1:6">
+    <row r="642" spans="1:6" ht="15">
       <c r="A642" s="1" t="s">
         <v>3820</v>
       </c>
@@ -31075,7 +31075,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="643" spans="1:6">
+    <row r="643" spans="1:6" ht="15">
       <c r="A643" s="1" t="s">
         <v>3826</v>
       </c>
@@ -31095,7 +31095,7 @@
         <v>3831</v>
       </c>
     </row>
-    <row r="644" spans="1:6">
+    <row r="644" spans="1:6" ht="15">
       <c r="A644" s="1" t="s">
         <v>3832</v>
       </c>
@@ -31115,7 +31115,7 @@
         <v>3837</v>
       </c>
     </row>
-    <row r="645" spans="1:6">
+    <row r="645" spans="1:6" ht="15">
       <c r="A645" s="1" t="s">
         <v>3838</v>
       </c>
@@ -31135,7 +31135,7 @@
         <v>3843</v>
       </c>
     </row>
-    <row r="646" spans="1:6">
+    <row r="646" spans="1:6" ht="15">
       <c r="A646" s="1" t="s">
         <v>3844</v>
       </c>
@@ -31155,7 +31155,7 @@
         <v>3849</v>
       </c>
     </row>
-    <row r="647" spans="1:6">
+    <row r="647" spans="1:6" ht="15">
       <c r="A647" s="1" t="s">
         <v>3850</v>
       </c>
@@ -31175,7 +31175,7 @@
         <v>3855</v>
       </c>
     </row>
-    <row r="648" spans="1:6">
+    <row r="648" spans="1:6" ht="15">
       <c r="A648" s="1" t="s">
         <v>3856</v>
       </c>
@@ -31195,7 +31195,7 @@
         <v>3861</v>
       </c>
     </row>
-    <row r="649" spans="1:6">
+    <row r="649" spans="1:6" ht="15">
       <c r="A649" s="1" t="s">
         <v>3862</v>
       </c>
@@ -31215,7 +31215,7 @@
         <v>3867</v>
       </c>
     </row>
-    <row r="650" spans="1:6">
+    <row r="650" spans="1:6" ht="15">
       <c r="A650" s="1" t="s">
         <v>3868</v>
       </c>
@@ -31235,7 +31235,7 @@
         <v>3873</v>
       </c>
     </row>
-    <row r="651" spans="1:6">
+    <row r="651" spans="1:6" ht="15">
       <c r="A651" s="1" t="s">
         <v>3874</v>
       </c>
@@ -31255,7 +31255,7 @@
         <v>3879</v>
       </c>
     </row>
-    <row r="652" spans="1:6">
+    <row r="652" spans="1:6" ht="15">
       <c r="A652" s="1" t="s">
         <v>3880</v>
       </c>
@@ -31275,7 +31275,7 @@
         <v>3885</v>
       </c>
     </row>
-    <row r="653" spans="1:6">
+    <row r="653" spans="1:6" ht="15">
       <c r="A653" s="1" t="s">
         <v>3886</v>
       </c>
@@ -31295,7 +31295,7 @@
         <v>3891</v>
       </c>
     </row>
-    <row r="654" spans="1:6">
+    <row r="654" spans="1:6" ht="15">
       <c r="A654" s="1" t="s">
         <v>3892</v>
       </c>
@@ -31315,7 +31315,7 @@
         <v>3897</v>
       </c>
     </row>
-    <row r="655" spans="1:6">
+    <row r="655" spans="1:6" ht="15">
       <c r="A655" s="1" t="s">
         <v>3898</v>
       </c>
@@ -31335,7 +31335,7 @@
         <v>3903</v>
       </c>
     </row>
-    <row r="656" spans="1:6">
+    <row r="656" spans="1:6" ht="15">
       <c r="A656" s="1" t="s">
         <v>3904</v>
       </c>
@@ -31355,7 +31355,7 @@
         <v>3909</v>
       </c>
     </row>
-    <row r="657" spans="1:6">
+    <row r="657" spans="1:6" ht="15">
       <c r="A657" s="1" t="s">
         <v>3910</v>
       </c>
@@ -31375,7 +31375,7 @@
         <v>3915</v>
       </c>
     </row>
-    <row r="658" spans="1:6">
+    <row r="658" spans="1:6" ht="15">
       <c r="A658" s="1" t="s">
         <v>3916</v>
       </c>
@@ -31395,7 +31395,7 @@
         <v>3921</v>
       </c>
     </row>
-    <row r="659" spans="1:6">
+    <row r="659" spans="1:6" ht="15">
       <c r="A659" s="1" t="s">
         <v>3922</v>
       </c>
@@ -31415,7 +31415,7 @@
         <v>3927</v>
       </c>
     </row>
-    <row r="660" spans="1:6">
+    <row r="660" spans="1:6" ht="15">
       <c r="A660" s="1" t="s">
         <v>3928</v>
       </c>
@@ -31435,7 +31435,7 @@
         <v>3933</v>
       </c>
     </row>
-    <row r="661" spans="1:6">
+    <row r="661" spans="1:6" ht="15">
       <c r="A661" s="1" t="s">
         <v>3934</v>
       </c>
@@ -31455,7 +31455,7 @@
         <v>3939</v>
       </c>
     </row>
-    <row r="662" spans="1:6">
+    <row r="662" spans="1:6" ht="15">
       <c r="A662" s="1" t="s">
         <v>3940</v>
       </c>
@@ -31475,7 +31475,7 @@
         <v>3945</v>
       </c>
     </row>
-    <row r="663" spans="1:6">
+    <row r="663" spans="1:6" ht="15">
       <c r="A663" s="1" t="s">
         <v>3332</v>
       </c>
@@ -31495,7 +31495,7 @@
         <v>3950</v>
       </c>
     </row>
-    <row r="664" spans="1:6">
+    <row r="664" spans="1:6" ht="15">
       <c r="A664" s="1" t="s">
         <v>3951</v>
       </c>
@@ -31515,7 +31515,7 @@
         <v>3956</v>
       </c>
     </row>
-    <row r="665" spans="1:6">
+    <row r="665" spans="1:6" ht="15">
       <c r="A665" s="1" t="s">
         <v>3957</v>
       </c>
@@ -31535,7 +31535,7 @@
         <v>3962</v>
       </c>
     </row>
-    <row r="666" spans="1:6">
+    <row r="666" spans="1:6" ht="15">
       <c r="A666" s="1" t="s">
         <v>3963</v>
       </c>
@@ -31555,7 +31555,7 @@
         <v>3968</v>
       </c>
     </row>
-    <row r="667" spans="1:6">
+    <row r="667" spans="1:6" ht="15">
       <c r="A667" s="1" t="s">
         <v>3969</v>
       </c>
@@ -31575,7 +31575,7 @@
         <v>3974</v>
       </c>
     </row>
-    <row r="668" spans="1:6">
+    <row r="668" spans="1:6" ht="15">
       <c r="A668" s="1" t="s">
         <v>3975</v>
       </c>
@@ -31595,7 +31595,7 @@
         <v>3980</v>
       </c>
     </row>
-    <row r="669" spans="1:6">
+    <row r="669" spans="1:6" ht="15">
       <c r="A669" s="1" t="s">
         <v>3981</v>
       </c>
@@ -31615,7 +31615,7 @@
         <v>3986</v>
       </c>
     </row>
-    <row r="670" spans="1:6">
+    <row r="670" spans="1:6" ht="15">
       <c r="A670" s="1" t="s">
         <v>3987</v>
       </c>
@@ -31635,7 +31635,7 @@
         <v>3992</v>
       </c>
     </row>
-    <row r="671" spans="1:6">
+    <row r="671" spans="1:6" ht="15">
       <c r="A671" s="1" t="s">
         <v>3993</v>
       </c>
@@ -31655,7 +31655,7 @@
         <v>3998</v>
       </c>
     </row>
-    <row r="672" spans="1:6">
+    <row r="672" spans="1:6" ht="15">
       <c r="A672" s="1" t="s">
         <v>3999</v>
       </c>
@@ -31675,7 +31675,7 @@
         <v>4004</v>
       </c>
     </row>
-    <row r="673" spans="1:6">
+    <row r="673" spans="1:6" ht="15">
       <c r="A673" s="1" t="s">
         <v>4005</v>
       </c>
@@ -31695,7 +31695,7 @@
         <v>4010</v>
       </c>
     </row>
-    <row r="674" spans="1:6">
+    <row r="674" spans="1:6" ht="15">
       <c r="A674" s="1" t="s">
         <v>4011</v>
       </c>
@@ -31715,7 +31715,7 @@
         <v>4016</v>
       </c>
     </row>
-    <row r="675" spans="1:6">
+    <row r="675" spans="1:6" ht="15">
       <c r="A675" s="1" t="s">
         <v>4017</v>
       </c>
@@ -31735,7 +31735,7 @@
         <v>4022</v>
       </c>
     </row>
-    <row r="676" spans="1:6">
+    <row r="676" spans="1:6" ht="15">
       <c r="A676" s="1" t="s">
         <v>4023</v>
       </c>
@@ -31755,7 +31755,7 @@
         <v>4028</v>
       </c>
     </row>
-    <row r="677" spans="1:6">
+    <row r="677" spans="1:6" ht="15">
       <c r="A677" s="1" t="s">
         <v>4029</v>
       </c>
@@ -31775,7 +31775,7 @@
         <v>4034</v>
       </c>
     </row>
-    <row r="678" spans="1:6">
+    <row r="678" spans="1:6" ht="15">
       <c r="A678" s="1" t="s">
         <v>4035</v>
       </c>
@@ -31795,7 +31795,7 @@
         <v>4040</v>
       </c>
     </row>
-    <row r="679" spans="1:6">
+    <row r="679" spans="1:6" ht="15">
       <c r="A679" s="1" t="s">
         <v>4041</v>
       </c>
@@ -31815,7 +31815,7 @@
         <v>4046</v>
       </c>
     </row>
-    <row r="680" spans="1:6">
+    <row r="680" spans="1:6" ht="15">
       <c r="A680" s="1" t="s">
         <v>4047</v>
       </c>
@@ -31835,7 +31835,7 @@
         <v>4052</v>
       </c>
     </row>
-    <row r="681" spans="1:6">
+    <row r="681" spans="1:6" ht="15">
       <c r="A681" s="1" t="s">
         <v>4053</v>
       </c>
@@ -31855,7 +31855,7 @@
         <v>4058</v>
       </c>
     </row>
-    <row r="682" spans="1:6">
+    <row r="682" spans="1:6" ht="15">
       <c r="A682" s="1" t="s">
         <v>4059</v>
       </c>
@@ -31875,7 +31875,7 @@
         <v>4064</v>
       </c>
     </row>
-    <row r="683" spans="1:6">
+    <row r="683" spans="1:6" ht="15">
       <c r="A683" s="1" t="s">
         <v>4065</v>
       </c>
@@ -31895,7 +31895,7 @@
         <v>4070</v>
       </c>
     </row>
-    <row r="684" spans="1:6">
+    <row r="684" spans="1:6" ht="15">
       <c r="A684" s="1" t="s">
         <v>4071</v>
       </c>
@@ -31915,7 +31915,7 @@
         <v>4076</v>
       </c>
     </row>
-    <row r="685" spans="1:6">
+    <row r="685" spans="1:6" ht="15">
       <c r="A685" s="1" t="s">
         <v>4077</v>
       </c>
@@ -31935,7 +31935,7 @@
         <v>4082</v>
       </c>
     </row>
-    <row r="686" spans="1:6">
+    <row r="686" spans="1:6" ht="15">
       <c r="A686" s="1" t="s">
         <v>4083</v>
       </c>
@@ -31955,7 +31955,7 @@
         <v>4088</v>
       </c>
     </row>
-    <row r="687" spans="1:6">
+    <row r="687" spans="1:6" ht="15">
       <c r="A687" s="1" t="s">
         <v>4089</v>
       </c>
@@ -31975,7 +31975,7 @@
         <v>4094</v>
       </c>
     </row>
-    <row r="688" spans="1:6">
+    <row r="688" spans="1:6" ht="15">
       <c r="A688" s="1" t="s">
         <v>4095</v>
       </c>
@@ -31995,7 +31995,7 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="689" spans="1:6">
+    <row r="689" spans="1:6" ht="15">
       <c r="A689" s="1" t="s">
         <v>4101</v>
       </c>
@@ -32015,7 +32015,7 @@
         <v>4106</v>
       </c>
     </row>
-    <row r="690" spans="1:6">
+    <row r="690" spans="1:6" ht="15">
       <c r="A690" s="1" t="s">
         <v>4107</v>
       </c>
@@ -32035,7 +32035,7 @@
         <v>4112</v>
       </c>
     </row>
-    <row r="691" spans="1:6">
+    <row r="691" spans="1:6" ht="15">
       <c r="A691" s="1" t="s">
         <v>4113</v>
       </c>
@@ -32055,7 +32055,7 @@
         <v>4118</v>
       </c>
     </row>
-    <row r="692" spans="1:6">
+    <row r="692" spans="1:6" ht="15">
       <c r="A692" s="1" t="s">
         <v>4119</v>
       </c>
@@ -32075,7 +32075,7 @@
         <v>4124</v>
       </c>
     </row>
-    <row r="693" spans="1:6">
+    <row r="693" spans="1:6" ht="15">
       <c r="A693" s="1" t="s">
         <v>4125</v>
       </c>
@@ -32095,7 +32095,7 @@
         <v>4130</v>
       </c>
     </row>
-    <row r="694" spans="1:6">
+    <row r="694" spans="1:6" ht="15">
       <c r="A694" s="1" t="s">
         <v>4131</v>
       </c>
@@ -32115,7 +32115,7 @@
         <v>4136</v>
       </c>
     </row>
-    <row r="695" spans="1:6">
+    <row r="695" spans="1:6" ht="15">
       <c r="A695" s="1" t="s">
         <v>4137</v>
       </c>
@@ -32135,7 +32135,7 @@
         <v>4142</v>
       </c>
     </row>
-    <row r="696" spans="1:6">
+    <row r="696" spans="1:6" ht="15">
       <c r="A696" s="1" t="s">
         <v>4143</v>
       </c>
@@ -32155,7 +32155,7 @@
         <v>4148</v>
       </c>
     </row>
-    <row r="697" spans="1:6">
+    <row r="697" spans="1:6" ht="15">
       <c r="A697" s="1" t="s">
         <v>4149</v>
       </c>
@@ -32175,7 +32175,7 @@
         <v>4154</v>
       </c>
     </row>
-    <row r="698" spans="1:6">
+    <row r="698" spans="1:6" ht="15">
       <c r="A698" s="1" t="s">
         <v>4155</v>
       </c>
@@ -32195,7 +32195,7 @@
         <v>4160</v>
       </c>
     </row>
-    <row r="699" spans="1:6">
+    <row r="699" spans="1:6" ht="15">
       <c r="A699" s="1" t="s">
         <v>4161</v>
       </c>
@@ -32215,7 +32215,7 @@
         <v>4166</v>
       </c>
     </row>
-    <row r="700" spans="1:6">
+    <row r="700" spans="1:6" ht="15">
       <c r="A700" s="1" t="s">
         <v>4167</v>
       </c>
@@ -32235,7 +32235,7 @@
         <v>4172</v>
       </c>
     </row>
-    <row r="701" spans="1:6">
+    <row r="701" spans="1:6" ht="15">
       <c r="A701" s="1" t="s">
         <v>4173</v>
       </c>
@@ -32255,7 +32255,7 @@
         <v>4178</v>
       </c>
     </row>
-    <row r="702" spans="1:6">
+    <row r="702" spans="1:6" ht="15">
       <c r="A702" s="1" t="s">
         <v>4179</v>
       </c>
@@ -32275,7 +32275,7 @@
         <v>4184</v>
       </c>
     </row>
-    <row r="703" spans="1:6">
+    <row r="703" spans="1:6" ht="15">
       <c r="A703" s="1" t="s">
         <v>4185</v>
       </c>
@@ -32295,7 +32295,7 @@
         <v>4190</v>
       </c>
     </row>
-    <row r="704" spans="1:6">
+    <row r="704" spans="1:6" ht="15">
       <c r="A704" s="1" t="s">
         <v>4191</v>
       </c>
@@ -32315,7 +32315,7 @@
         <v>4196</v>
       </c>
     </row>
-    <row r="705" spans="1:6">
+    <row r="705" spans="1:6" ht="15">
       <c r="A705" s="1" t="s">
         <v>4197</v>
       </c>
@@ -32335,7 +32335,7 @@
         <v>4202</v>
       </c>
     </row>
-    <row r="706" spans="1:6">
+    <row r="706" spans="1:6" ht="15">
       <c r="A706" s="1" t="s">
         <v>4203</v>
       </c>
@@ -32355,7 +32355,7 @@
         <v>4208</v>
       </c>
     </row>
-    <row r="707" spans="1:6">
+    <row r="707" spans="1:6" ht="15">
       <c r="A707" s="1" t="s">
         <v>4209</v>
       </c>
@@ -32375,7 +32375,7 @@
         <v>4214</v>
       </c>
     </row>
-    <row r="708" spans="1:6">
+    <row r="708" spans="1:6" ht="15">
       <c r="A708" s="1" t="s">
         <v>4215</v>
       </c>
@@ -32395,7 +32395,7 @@
         <v>4220</v>
       </c>
     </row>
-    <row r="709" spans="1:6">
+    <row r="709" spans="1:6" ht="15">
       <c r="A709" s="1" t="s">
         <v>4221</v>
       </c>
@@ -32415,7 +32415,7 @@
         <v>4226</v>
       </c>
     </row>
-    <row r="710" spans="1:6">
+    <row r="710" spans="1:6" ht="15">
       <c r="A710" s="1" t="s">
         <v>4227</v>
       </c>
@@ -32435,7 +32435,7 @@
         <v>4232</v>
       </c>
     </row>
-    <row r="711" spans="1:6">
+    <row r="711" spans="1:6" ht="15">
       <c r="A711" s="1" t="s">
         <v>4233</v>
       </c>
@@ -32455,7 +32455,7 @@
         <v>4238</v>
       </c>
     </row>
-    <row r="712" spans="1:6">
+    <row r="712" spans="1:6" ht="15">
       <c r="A712" s="1" t="s">
         <v>4239</v>
       </c>
@@ -32475,7 +32475,7 @@
         <v>4243</v>
       </c>
     </row>
-    <row r="713" spans="1:6">
+    <row r="713" spans="1:6" ht="15">
       <c r="A713" s="1" t="s">
         <v>4180</v>
       </c>
@@ -32495,7 +32495,7 @@
         <v>4248</v>
       </c>
     </row>
-    <row r="714" spans="1:6">
+    <row r="714" spans="1:6" ht="15">
       <c r="A714" s="1" t="s">
         <v>4249</v>
       </c>
@@ -32515,7 +32515,7 @@
         <v>4254</v>
       </c>
     </row>
-    <row r="715" spans="1:6">
+    <row r="715" spans="1:6" ht="15">
       <c r="A715" s="1" t="s">
         <v>4255</v>
       </c>
@@ -32535,7 +32535,7 @@
         <v>4260</v>
       </c>
     </row>
-    <row r="716" spans="1:6">
+    <row r="716" spans="1:6" ht="15">
       <c r="A716" s="1" t="s">
         <v>4261</v>
       </c>
@@ -32555,7 +32555,7 @@
         <v>4266</v>
       </c>
     </row>
-    <row r="717" spans="1:6">
+    <row r="717" spans="1:6" ht="15">
       <c r="A717" s="1" t="s">
         <v>4267</v>
       </c>
@@ -32575,7 +32575,7 @@
         <v>4272</v>
       </c>
     </row>
-    <row r="718" spans="1:6">
+    <row r="718" spans="1:6" ht="15">
       <c r="A718" s="1" t="s">
         <v>4273</v>
       </c>
@@ -32595,7 +32595,7 @@
         <v>4278</v>
       </c>
     </row>
-    <row r="719" spans="1:6">
+    <row r="719" spans="1:6" ht="15">
       <c r="A719" s="1" t="s">
         <v>4279</v>
       </c>
@@ -32615,7 +32615,7 @@
         <v>4284</v>
       </c>
     </row>
-    <row r="720" spans="1:6">
+    <row r="720" spans="1:6" ht="15">
       <c r="A720" s="1" t="s">
         <v>3762</v>
       </c>
@@ -32635,7 +32635,7 @@
         <v>4289</v>
       </c>
     </row>
-    <row r="721" spans="1:6">
+    <row r="721" spans="1:6" ht="15">
       <c r="A721" s="1" t="s">
         <v>4290</v>
       </c>
@@ -32655,7 +32655,7 @@
         <v>4295</v>
       </c>
     </row>
-    <row r="722" spans="1:6">
+    <row r="722" spans="1:6" ht="15">
       <c r="A722" s="1" t="s">
         <v>4296</v>
       </c>
@@ -32675,7 +32675,7 @@
         <v>4301</v>
       </c>
     </row>
-    <row r="723" spans="1:6">
+    <row r="723" spans="1:6" ht="15">
       <c r="A723" s="1" t="s">
         <v>4302</v>
       </c>
@@ -32695,7 +32695,7 @@
         <v>4307</v>
       </c>
     </row>
-    <row r="724" spans="1:6">
+    <row r="724" spans="1:6" ht="15">
       <c r="A724" s="1" t="s">
         <v>4308</v>
       </c>
@@ -32715,7 +32715,7 @@
         <v>4313</v>
       </c>
     </row>
-    <row r="725" spans="1:6">
+    <row r="725" spans="1:6" ht="15">
       <c r="A725" s="1" t="s">
         <v>4314</v>
       </c>
@@ -32735,7 +32735,7 @@
         <v>4319</v>
       </c>
     </row>
-    <row r="726" spans="1:6">
+    <row r="726" spans="1:6" ht="15">
       <c r="A726" s="1" t="s">
         <v>4320</v>
       </c>
@@ -32755,7 +32755,7 @@
         <v>4325</v>
       </c>
     </row>
-    <row r="727" spans="1:6">
+    <row r="727" spans="1:6" ht="15">
       <c r="A727" s="1" t="s">
         <v>4326</v>
       </c>
@@ -32775,7 +32775,7 @@
         <v>4331</v>
       </c>
     </row>
-    <row r="728" spans="1:6">
+    <row r="728" spans="1:6" ht="15">
       <c r="A728" s="1" t="s">
         <v>4332</v>
       </c>
@@ -32795,7 +32795,7 @@
         <v>4337</v>
       </c>
     </row>
-    <row r="729" spans="1:6">
+    <row r="729" spans="1:6" ht="15">
       <c r="A729" s="1" t="s">
         <v>4338</v>
       </c>
@@ -32815,7 +32815,7 @@
         <v>4343</v>
       </c>
     </row>
-    <row r="730" spans="1:6">
+    <row r="730" spans="1:6" ht="15">
       <c r="A730" s="1" t="s">
         <v>4344</v>
       </c>
@@ -32835,7 +32835,7 @@
         <v>4349</v>
       </c>
     </row>
-    <row r="731" spans="1:6">
+    <row r="731" spans="1:6" ht="15">
       <c r="A731" s="1" t="s">
         <v>4350</v>
       </c>
@@ -32855,7 +32855,7 @@
         <v>4355</v>
       </c>
     </row>
-    <row r="732" spans="1:6">
+    <row r="732" spans="1:6" ht="15">
       <c r="A732" s="1" t="s">
         <v>4356</v>
       </c>
@@ -32875,7 +32875,7 @@
         <v>4361</v>
       </c>
     </row>
-    <row r="733" spans="1:6">
+    <row r="733" spans="1:6" ht="15">
       <c r="A733" s="1" t="s">
         <v>4362</v>
       </c>
@@ -32895,7 +32895,7 @@
         <v>4367</v>
       </c>
     </row>
-    <row r="734" spans="1:6">
+    <row r="734" spans="1:6" ht="15">
       <c r="A734" s="1" t="s">
         <v>4368</v>
       </c>
@@ -32915,7 +32915,7 @@
         <v>4372</v>
       </c>
     </row>
-    <row r="735" spans="1:6">
+    <row r="735" spans="1:6" ht="15">
       <c r="A735" s="1" t="s">
         <v>4373</v>
       </c>
@@ -32935,7 +32935,7 @@
         <v>4378</v>
       </c>
     </row>
-    <row r="736" spans="1:6">
+    <row r="736" spans="1:6" ht="15">
       <c r="A736" s="1" t="s">
         <v>4379</v>
       </c>
@@ -32955,7 +32955,7 @@
         <v>4384</v>
       </c>
     </row>
-    <row r="737" spans="1:6">
+    <row r="737" spans="1:6" ht="15">
       <c r="A737" s="1" t="s">
         <v>4385</v>
       </c>
@@ -32975,7 +32975,7 @@
         <v>4390</v>
       </c>
     </row>
-    <row r="738" spans="1:6">
+    <row r="738" spans="1:6" ht="15">
       <c r="A738" s="1" t="s">
         <v>4391</v>
       </c>
@@ -32995,7 +32995,7 @@
         <v>4396</v>
       </c>
     </row>
-    <row r="739" spans="1:6">
+    <row r="739" spans="1:6" ht="15">
       <c r="A739" s="1" t="s">
         <v>4397</v>
       </c>
@@ -33015,7 +33015,7 @@
         <v>4402</v>
       </c>
     </row>
-    <row r="740" spans="1:6">
+    <row r="740" spans="1:6" ht="15">
       <c r="A740" s="1" t="s">
         <v>4403</v>
       </c>
@@ -33035,7 +33035,7 @@
         <v>4408</v>
       </c>
     </row>
-    <row r="741" spans="1:6">
+    <row r="741" spans="1:6" ht="15">
       <c r="A741" s="1" t="s">
         <v>4409</v>
       </c>
@@ -33055,7 +33055,7 @@
         <v>4414</v>
       </c>
     </row>
-    <row r="742" spans="1:6">
+    <row r="742" spans="1:6" ht="15">
       <c r="A742" s="1" t="s">
         <v>2761</v>
       </c>
@@ -33075,7 +33075,7 @@
         <v>4418</v>
       </c>
     </row>
-    <row r="743" spans="1:6">
+    <row r="743" spans="1:6" ht="15">
       <c r="A743" s="1" t="s">
         <v>4419</v>
       </c>
@@ -33095,7 +33095,7 @@
         <v>4424</v>
       </c>
     </row>
-    <row r="744" spans="1:6">
+    <row r="744" spans="1:6" ht="15">
       <c r="A744" s="1" t="s">
         <v>4425</v>
       </c>
@@ -33115,7 +33115,7 @@
         <v>4430</v>
       </c>
     </row>
-    <row r="745" spans="1:6">
+    <row r="745" spans="1:6" ht="15">
       <c r="A745" s="1" t="s">
         <v>4431</v>
       </c>
@@ -33135,7 +33135,7 @@
         <v>4436</v>
       </c>
     </row>
-    <row r="746" spans="1:6">
+    <row r="746" spans="1:6" ht="15">
       <c r="A746" s="1" t="s">
         <v>4437</v>
       </c>
@@ -33155,7 +33155,7 @@
         <v>4442</v>
       </c>
     </row>
-    <row r="747" spans="1:6">
+    <row r="747" spans="1:6" ht="15">
       <c r="A747" s="1" t="s">
         <v>4443</v>
       </c>
@@ -33175,7 +33175,7 @@
         <v>4448</v>
       </c>
     </row>
-    <row r="748" spans="1:6">
+    <row r="748" spans="1:6" ht="15">
       <c r="A748" s="1" t="s">
         <v>4449</v>
       </c>
@@ -33195,7 +33195,7 @@
         <v>4454</v>
       </c>
     </row>
-    <row r="749" spans="1:6">
+    <row r="749" spans="1:6" ht="15">
       <c r="A749" s="1" t="s">
         <v>4455</v>
       </c>
@@ -33215,7 +33215,7 @@
         <v>4460</v>
       </c>
     </row>
-    <row r="750" spans="1:6">
+    <row r="750" spans="1:6" ht="15">
       <c r="A750" s="1" t="s">
         <v>4461</v>
       </c>
@@ -33235,7 +33235,7 @@
         <v>4466</v>
       </c>
     </row>
-    <row r="751" spans="1:6">
+    <row r="751" spans="1:6" ht="15">
       <c r="A751" s="1" t="s">
         <v>4467</v>
       </c>
@@ -33255,7 +33255,7 @@
         <v>4472</v>
       </c>
     </row>
-    <row r="752" spans="1:6">
+    <row r="752" spans="1:6" ht="15">
       <c r="A752" s="1" t="s">
         <v>4473</v>
       </c>
@@ -33275,7 +33275,7 @@
         <v>4478</v>
       </c>
     </row>
-    <row r="753" spans="1:6">
+    <row r="753" spans="1:6" ht="15">
       <c r="A753" s="1" t="s">
         <v>4479</v>
       </c>
@@ -33295,7 +33295,7 @@
         <v>4484</v>
       </c>
     </row>
-    <row r="754" spans="1:6">
+    <row r="754" spans="1:6" ht="15">
       <c r="A754" s="1" t="s">
         <v>4485</v>
       </c>
@@ -33315,7 +33315,7 @@
         <v>4490</v>
       </c>
     </row>
-    <row r="755" spans="1:6">
+    <row r="755" spans="1:6" ht="15">
       <c r="A755" s="1" t="s">
         <v>4491</v>
       </c>
@@ -33335,7 +33335,7 @@
         <v>4496</v>
       </c>
     </row>
-    <row r="756" spans="1:6">
+    <row r="756" spans="1:6" ht="15">
       <c r="A756" s="1" t="s">
         <v>4497</v>
       </c>
@@ -33355,7 +33355,7 @@
         <v>4502</v>
       </c>
     </row>
-    <row r="757" spans="1:6">
+    <row r="757" spans="1:6" ht="15">
       <c r="A757" s="1" t="s">
         <v>4503</v>
       </c>
@@ -33375,7 +33375,7 @@
         <v>4508</v>
       </c>
     </row>
-    <row r="758" spans="1:6">
+    <row r="758" spans="1:6" ht="15">
       <c r="A758" s="1" t="s">
         <v>4509</v>
       </c>
@@ -33395,7 +33395,7 @@
         <v>4514</v>
       </c>
     </row>
-    <row r="759" spans="1:6">
+    <row r="759" spans="1:6" ht="15">
       <c r="A759" s="1" t="s">
         <v>4515</v>
       </c>
@@ -33415,7 +33415,7 @@
         <v>4520</v>
       </c>
     </row>
-    <row r="760" spans="1:6">
+    <row r="760" spans="1:6" ht="15">
       <c r="A760" s="1" t="s">
         <v>4521</v>
       </c>
@@ -33435,7 +33435,7 @@
         <v>4526</v>
       </c>
     </row>
-    <row r="761" spans="1:6">
+    <row r="761" spans="1:6" ht="15">
       <c r="A761" s="1" t="s">
         <v>4527</v>
       </c>
@@ -33455,7 +33455,7 @@
         <v>4532</v>
       </c>
     </row>
-    <row r="762" spans="1:6">
+    <row r="762" spans="1:6" ht="15">
       <c r="A762" s="1" t="s">
         <v>4533</v>
       </c>
@@ -33475,7 +33475,7 @@
         <v>4538</v>
       </c>
     </row>
-    <row r="763" spans="1:6">
+    <row r="763" spans="1:6" ht="15">
       <c r="A763" s="1" t="s">
         <v>4539</v>
       </c>
@@ -33495,7 +33495,7 @@
         <v>4544</v>
       </c>
     </row>
-    <row r="764" spans="1:6">
+    <row r="764" spans="1:6" ht="15">
       <c r="A764" s="1" t="s">
         <v>4545</v>
       </c>
@@ -33515,7 +33515,7 @@
         <v>4550</v>
       </c>
     </row>
-    <row r="765" spans="1:6">
+    <row r="765" spans="1:6" ht="15">
       <c r="A765" s="1" t="s">
         <v>4551</v>
       </c>
@@ -33535,7 +33535,7 @@
         <v>4555</v>
       </c>
     </row>
-    <row r="766" spans="1:6">
+    <row r="766" spans="1:6" ht="15">
       <c r="A766" s="1" t="s">
         <v>4556</v>
       </c>
@@ -33555,7 +33555,7 @@
         <v>4561</v>
       </c>
     </row>
-    <row r="767" spans="1:6">
+    <row r="767" spans="1:6" ht="15">
       <c r="A767" s="1" t="s">
         <v>4562</v>
       </c>
@@ -33575,7 +33575,7 @@
         <v>4567</v>
       </c>
     </row>
-    <row r="768" spans="1:6">
+    <row r="768" spans="1:6" ht="15">
       <c r="A768" s="1" t="s">
         <v>4568</v>
       </c>
@@ -33595,7 +33595,7 @@
         <v>4573</v>
       </c>
     </row>
-    <row r="769" spans="1:6">
+    <row r="769" spans="1:6" ht="15">
       <c r="A769" s="1" t="s">
         <v>4574</v>
       </c>
@@ -33615,7 +33615,7 @@
         <v>4579</v>
       </c>
     </row>
-    <row r="770" spans="1:6">
+    <row r="770" spans="1:6" ht="15">
       <c r="A770" s="1" t="s">
         <v>4580</v>
       </c>
@@ -33635,7 +33635,7 @@
         <v>4585</v>
       </c>
     </row>
-    <row r="771" spans="1:6">
+    <row r="771" spans="1:6" ht="15">
       <c r="A771" s="1" t="s">
         <v>4586</v>
       </c>
@@ -33655,7 +33655,7 @@
         <v>4591</v>
       </c>
     </row>
-    <row r="772" spans="1:6">
+    <row r="772" spans="1:6" ht="15">
       <c r="A772" s="1" t="s">
         <v>4592</v>
       </c>
@@ -33675,7 +33675,7 @@
         <v>4596</v>
       </c>
     </row>
-    <row r="773" spans="1:6">
+    <row r="773" spans="1:6" ht="15">
       <c r="A773" s="1" t="s">
         <v>4597</v>
       </c>
@@ -33695,7 +33695,7 @@
         <v>4602</v>
       </c>
     </row>
-    <row r="774" spans="1:6">
+    <row r="774" spans="1:6" ht="15">
       <c r="A774" s="1" t="s">
         <v>4603</v>
       </c>
@@ -33715,7 +33715,7 @@
         <v>4608</v>
       </c>
     </row>
-    <row r="775" spans="1:6">
+    <row r="775" spans="1:6" ht="15">
       <c r="A775" s="1" t="s">
         <v>4609</v>
       </c>
@@ -33735,7 +33735,7 @@
         <v>4614</v>
       </c>
     </row>
-    <row r="776" spans="1:6">
+    <row r="776" spans="1:6" ht="15">
       <c r="A776" s="1" t="s">
         <v>4615</v>
       </c>
@@ -33755,7 +33755,7 @@
         <v>4620</v>
       </c>
     </row>
-    <row r="777" spans="1:6">
+    <row r="777" spans="1:6" ht="15">
       <c r="A777" s="1" t="s">
         <v>4621</v>
       </c>
@@ -33775,7 +33775,7 @@
         <v>4626</v>
       </c>
     </row>
-    <row r="778" spans="1:6">
+    <row r="778" spans="1:6" ht="15">
       <c r="A778" s="1" t="s">
         <v>4627</v>
       </c>
@@ -33795,7 +33795,7 @@
         <v>4632</v>
       </c>
     </row>
-    <row r="779" spans="1:6">
+    <row r="779" spans="1:6" ht="15">
       <c r="A779" s="1" t="s">
         <v>4633</v>
       </c>
@@ -33815,7 +33815,7 @@
         <v>4638</v>
       </c>
     </row>
-    <row r="780" spans="1:6">
+    <row r="780" spans="1:6" ht="15">
       <c r="A780" s="1" t="s">
         <v>4639</v>
       </c>
@@ -33835,7 +33835,7 @@
         <v>4644</v>
       </c>
     </row>
-    <row r="781" spans="1:6">
+    <row r="781" spans="1:6" ht="15">
       <c r="A781" s="1" t="s">
         <v>4645</v>
       </c>
@@ -33855,7 +33855,7 @@
         <v>4650</v>
       </c>
     </row>
-    <row r="782" spans="1:6">
+    <row r="782" spans="1:6" ht="15">
       <c r="A782" s="1" t="s">
         <v>4651</v>
       </c>
@@ -33875,7 +33875,7 @@
         <v>4656</v>
       </c>
     </row>
-    <row r="783" spans="1:6">
+    <row r="783" spans="1:6" ht="15">
       <c r="A783" s="1" t="s">
         <v>4657</v>
       </c>
@@ -33895,7 +33895,7 @@
         <v>4662</v>
       </c>
     </row>
-    <row r="784" spans="1:6">
+    <row r="784" spans="1:6" ht="15">
       <c r="A784" s="1" t="s">
         <v>4663</v>
       </c>
@@ -33915,7 +33915,7 @@
         <v>4668</v>
       </c>
     </row>
-    <row r="785" spans="1:6">
+    <row r="785" spans="1:6" ht="15">
       <c r="A785" s="1" t="s">
         <v>4669</v>
       </c>
@@ -33935,7 +33935,7 @@
         <v>4674</v>
       </c>
     </row>
-    <row r="786" spans="1:6">
+    <row r="786" spans="1:6" ht="15">
       <c r="A786" s="1" t="s">
         <v>4675</v>
       </c>
@@ -33955,7 +33955,7 @@
         <v>4680</v>
       </c>
     </row>
-    <row r="787" spans="1:6">
+    <row r="787" spans="1:6" ht="15">
       <c r="A787" s="1" t="s">
         <v>4681</v>
       </c>
@@ -33975,7 +33975,7 @@
         <v>4685</v>
       </c>
     </row>
-    <row r="788" spans="1:6">
+    <row r="788" spans="1:6" ht="15">
       <c r="A788" s="1" t="s">
         <v>4686</v>
       </c>
@@ -33995,7 +33995,7 @@
         <v>4691</v>
       </c>
     </row>
-    <row r="789" spans="1:6">
+    <row r="789" spans="1:6" ht="15">
       <c r="A789" s="1" t="s">
         <v>4692</v>
       </c>
@@ -34015,7 +34015,7 @@
         <v>4697</v>
       </c>
     </row>
-    <row r="790" spans="1:6">
+    <row r="790" spans="1:6" ht="15">
       <c r="A790" s="1" t="s">
         <v>4698</v>
       </c>
@@ -34035,7 +34035,7 @@
         <v>4703</v>
       </c>
     </row>
-    <row r="791" spans="1:6">
+    <row r="791" spans="1:6" ht="15">
       <c r="A791" s="2" t="s">
         <v>4704</v>
       </c>
@@ -34055,7 +34055,7 @@
         <v>4709</v>
       </c>
     </row>
-    <row r="792" spans="1:6">
+    <row r="792" spans="1:6" ht="15">
       <c r="A792" s="1" t="s">
         <v>4710</v>
       </c>
@@ -34075,7 +34075,7 @@
         <v>4715</v>
       </c>
     </row>
-    <row r="793" spans="1:6">
+    <row r="793" spans="1:6" ht="15">
       <c r="A793" s="1" t="s">
         <v>4716</v>
       </c>
@@ -34095,7 +34095,7 @@
         <v>4721</v>
       </c>
     </row>
-    <row r="794" spans="1:6">
+    <row r="794" spans="1:6" ht="15">
       <c r="A794" s="1" t="s">
         <v>4722</v>
       </c>
@@ -34115,7 +34115,7 @@
         <v>4727</v>
       </c>
     </row>
-    <row r="795" spans="1:6">
+    <row r="795" spans="1:6" ht="15">
       <c r="A795" s="1" t="s">
         <v>4728</v>
       </c>
@@ -34135,7 +34135,7 @@
         <v>4733</v>
       </c>
     </row>
-    <row r="796" spans="1:6">
+    <row r="796" spans="1:6" ht="15">
       <c r="A796" s="1" t="s">
         <v>4734</v>
       </c>
@@ -34155,7 +34155,7 @@
         <v>4739</v>
       </c>
     </row>
-    <row r="797" spans="1:6">
+    <row r="797" spans="1:6" ht="15">
       <c r="A797" s="1" t="s">
         <v>4740</v>
       </c>
@@ -34175,7 +34175,7 @@
         <v>4745</v>
       </c>
     </row>
-    <row r="798" spans="1:6">
+    <row r="798" spans="1:6" ht="15">
       <c r="A798" s="1" t="s">
         <v>4746</v>
       </c>
@@ -34195,7 +34195,7 @@
         <v>4751</v>
       </c>
     </row>
-    <row r="799" spans="1:6">
+    <row r="799" spans="1:6" ht="15">
       <c r="A799" s="1" t="s">
         <v>4752</v>
       </c>
@@ -34215,7 +34215,7 @@
         <v>4757</v>
       </c>
     </row>
-    <row r="800" spans="1:6">
+    <row r="800" spans="1:6" ht="15">
       <c r="A800" s="1" t="s">
         <v>4758</v>
       </c>
@@ -34235,7 +34235,7 @@
         <v>4762</v>
       </c>
     </row>
-    <row r="801" spans="1:6">
+    <row r="801" spans="1:6" ht="15">
       <c r="A801" s="1" t="s">
         <v>4763</v>
       </c>
@@ -34255,7 +34255,7 @@
         <v>4768</v>
       </c>
     </row>
-    <row r="802" spans="1:6">
+    <row r="802" spans="1:6" ht="15">
       <c r="A802" s="1" t="s">
         <v>4769</v>
       </c>
@@ -34275,7 +34275,7 @@
         <v>4774</v>
       </c>
     </row>
-    <row r="803" spans="1:6">
+    <row r="803" spans="1:6" ht="15">
       <c r="A803" s="1" t="s">
         <v>4775</v>
       </c>
@@ -34295,7 +34295,7 @@
         <v>4780</v>
       </c>
     </row>
-    <row r="804" spans="1:6">
+    <row r="804" spans="1:6" ht="15">
       <c r="A804" s="1" t="s">
         <v>4781</v>
       </c>
@@ -34315,7 +34315,7 @@
         <v>4786</v>
       </c>
     </row>
-    <row r="805" spans="1:6">
+    <row r="805" spans="1:6" ht="15">
       <c r="A805" s="1" t="s">
         <v>4787</v>
       </c>
@@ -34335,7 +34335,7 @@
         <v>4792</v>
       </c>
     </row>
-    <row r="806" spans="1:6">
+    <row r="806" spans="1:6" ht="15">
       <c r="A806" s="1" t="s">
         <v>4793</v>
       </c>
@@ -34355,7 +34355,7 @@
         <v>4798</v>
       </c>
     </row>
-    <row r="807" spans="1:6">
+    <row r="807" spans="1:6" ht="15">
       <c r="A807" s="1" t="s">
         <v>4799</v>
       </c>
@@ -34375,7 +34375,7 @@
         <v>4804</v>
       </c>
     </row>
-    <row r="808" spans="1:6">
+    <row r="808" spans="1:6" ht="15">
       <c r="A808" s="1" t="s">
         <v>4805</v>
       </c>
@@ -34395,7 +34395,7 @@
         <v>4810</v>
       </c>
     </row>
-    <row r="809" spans="1:6">
+    <row r="809" spans="1:6" ht="15">
       <c r="A809" s="1" t="s">
         <v>4811</v>
       </c>
@@ -34415,7 +34415,7 @@
         <v>4816</v>
       </c>
     </row>
-    <row r="810" spans="1:6">
+    <row r="810" spans="1:6" ht="15">
       <c r="A810" s="1" t="s">
         <v>4817</v>
       </c>
@@ -34435,7 +34435,7 @@
         <v>4822</v>
       </c>
     </row>
-    <row r="811" spans="1:6">
+    <row r="811" spans="1:6" ht="15">
       <c r="A811" s="1" t="s">
         <v>4823</v>
       </c>
@@ -34455,7 +34455,7 @@
         <v>4828</v>
       </c>
     </row>
-    <row r="812" spans="1:6">
+    <row r="812" spans="1:6" ht="15">
       <c r="A812" s="1" t="s">
         <v>4829</v>
       </c>
@@ -34475,7 +34475,7 @@
         <v>4833</v>
       </c>
     </row>
-    <row r="813" spans="1:6">
+    <row r="813" spans="1:6" ht="15">
       <c r="A813" s="1" t="s">
         <v>4834</v>
       </c>
@@ -34495,7 +34495,7 @@
         <v>4839</v>
       </c>
     </row>
-    <row r="814" spans="1:6">
+    <row r="814" spans="1:6" ht="15">
       <c r="A814" s="1" t="s">
         <v>4840</v>
       </c>
@@ -34515,7 +34515,7 @@
         <v>4845</v>
       </c>
     </row>
-    <row r="815" spans="1:6">
+    <row r="815" spans="1:6" ht="15">
       <c r="A815" s="1" t="s">
         <v>2463</v>
       </c>
@@ -34535,7 +34535,7 @@
         <v>4850</v>
       </c>
     </row>
-    <row r="816" spans="1:6">
+    <row r="816" spans="1:6" ht="15">
       <c r="A816" s="1" t="s">
         <v>4851</v>
       </c>
@@ -34555,7 +34555,7 @@
         <v>4856</v>
       </c>
     </row>
-    <row r="817" spans="1:6">
+    <row r="817" spans="1:6" ht="15">
       <c r="A817" s="1" t="s">
         <v>4857</v>
       </c>
@@ -34575,7 +34575,7 @@
         <v>4862</v>
       </c>
     </row>
-    <row r="818" spans="1:6">
+    <row r="818" spans="1:6" ht="15">
       <c r="A818" s="1" t="s">
         <v>4863</v>
       </c>
@@ -34595,7 +34595,7 @@
         <v>4868</v>
       </c>
     </row>
-    <row r="819" spans="1:6">
+    <row r="819" spans="1:6" ht="15">
       <c r="A819" s="1" t="s">
         <v>4869</v>
       </c>
@@ -34615,7 +34615,7 @@
         <v>4874</v>
       </c>
     </row>
-    <row r="820" spans="1:6">
+    <row r="820" spans="1:6" ht="15">
       <c r="A820" s="1" t="s">
         <v>4875</v>
       </c>
@@ -34635,7 +34635,7 @@
         <v>4880</v>
       </c>
     </row>
-    <row r="821" spans="1:6">
+    <row r="821" spans="1:6" ht="15">
       <c r="A821" s="1" t="s">
         <v>4881</v>
       </c>
@@ -34655,7 +34655,7 @@
         <v>4886</v>
       </c>
     </row>
-    <row r="822" spans="1:6">
+    <row r="822" spans="1:6" ht="15">
       <c r="A822" s="2" t="s">
         <v>4887</v>
       </c>
@@ -34675,7 +34675,7 @@
         <v>4892</v>
       </c>
     </row>
-    <row r="823" spans="1:6">
+    <row r="823" spans="1:6" ht="15">
       <c r="A823" s="1" t="s">
         <v>4893</v>
       </c>
@@ -34695,7 +34695,7 @@
         <v>4898</v>
       </c>
     </row>
-    <row r="824" spans="1:6">
+    <row r="824" spans="1:6" ht="15">
       <c r="A824" s="1" t="s">
         <v>4899</v>
       </c>
@@ -34715,7 +34715,7 @@
         <v>4904</v>
       </c>
     </row>
-    <row r="825" spans="1:6">
+    <row r="825" spans="1:6" ht="15">
       <c r="A825" s="1" t="s">
         <v>4905</v>
       </c>
@@ -34735,7 +34735,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="826" spans="1:6">
+    <row r="826" spans="1:6" ht="15">
       <c r="A826" s="1" t="s">
         <v>4911</v>
       </c>
@@ -34755,7 +34755,7 @@
         <v>4916</v>
       </c>
     </row>
-    <row r="827" spans="1:6">
+    <row r="827" spans="1:6" ht="15">
       <c r="A827" s="1" t="s">
         <v>4917</v>
       </c>
@@ -34775,7 +34775,7 @@
         <v>4922</v>
       </c>
     </row>
-    <row r="828" spans="1:6">
+    <row r="828" spans="1:6" ht="15">
       <c r="A828" s="1" t="s">
         <v>4923</v>
       </c>
@@ -34795,7 +34795,7 @@
         <v>4928</v>
       </c>
     </row>
-    <row r="829" spans="1:6">
+    <row r="829" spans="1:6" ht="15">
       <c r="A829" s="1" t="s">
         <v>4929</v>
       </c>
@@ -34815,7 +34815,7 @@
         <v>4934</v>
       </c>
     </row>
-    <row r="830" spans="1:6">
+    <row r="830" spans="1:6" ht="15">
       <c r="A830" s="1" t="s">
         <v>4935</v>
       </c>
@@ -34835,7 +34835,7 @@
         <v>4940</v>
       </c>
     </row>
-    <row r="831" spans="1:6">
+    <row r="831" spans="1:6" ht="15">
       <c r="A831" s="1" t="s">
         <v>4941</v>
       </c>
@@ -34855,7 +34855,7 @@
         <v>4946</v>
       </c>
     </row>
-    <row r="832" spans="1:6">
+    <row r="832" spans="1:6" ht="15">
       <c r="A832" s="1" t="s">
         <v>4947</v>
       </c>
@@ -34875,7 +34875,7 @@
         <v>4952</v>
       </c>
     </row>
-    <row r="833" spans="1:6">
+    <row r="833" spans="1:6" ht="15">
       <c r="A833" s="1" t="s">
         <v>4953</v>
       </c>
@@ -34895,7 +34895,7 @@
         <v>4958</v>
       </c>
     </row>
-    <row r="834" spans="1:6">
+    <row r="834" spans="1:6" ht="15">
       <c r="A834" s="1" t="s">
         <v>4959</v>
       </c>
@@ -34915,7 +34915,7 @@
         <v>4964</v>
       </c>
     </row>
-    <row r="835" spans="1:6">
+    <row r="835" spans="1:6" ht="15">
       <c r="A835" s="1" t="s">
         <v>4965</v>
       </c>
@@ -34935,7 +34935,7 @@
         <v>4970</v>
       </c>
     </row>
-    <row r="836" spans="1:6">
+    <row r="836" spans="1:6" ht="15">
       <c r="A836" s="1" t="s">
         <v>4971</v>
       </c>
@@ -34955,7 +34955,7 @@
         <v>4976</v>
       </c>
     </row>
-    <row r="837" spans="1:6">
+    <row r="837" spans="1:6" ht="15">
       <c r="A837" s="1" t="s">
         <v>4977</v>
       </c>
@@ -34975,7 +34975,7 @@
         <v>4982</v>
       </c>
     </row>
-    <row r="838" spans="1:6">
+    <row r="838" spans="1:6" ht="15">
       <c r="A838" s="1" t="s">
         <v>4983</v>
       </c>
@@ -34995,7 +34995,7 @@
         <v>4988</v>
       </c>
     </row>
-    <row r="839" spans="1:6">
+    <row r="839" spans="1:6" ht="15">
       <c r="A839" s="1" t="s">
         <v>4989</v>
       </c>
@@ -35015,7 +35015,7 @@
         <v>4994</v>
       </c>
     </row>
-    <row r="840" spans="1:6">
+    <row r="840" spans="1:6" ht="15">
       <c r="A840" s="1" t="s">
         <v>4995</v>
       </c>
@@ -35035,7 +35035,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="841" spans="1:6">
+    <row r="841" spans="1:6" ht="15">
       <c r="A841" s="1" t="s">
         <v>5001</v>
       </c>
@@ -35055,7 +35055,7 @@
         <v>5005</v>
       </c>
     </row>
-    <row r="842" spans="1:6">
+    <row r="842" spans="1:6" ht="15">
       <c r="A842" s="1" t="s">
         <v>5006</v>
       </c>
@@ -35075,7 +35075,7 @@
         <v>5011</v>
       </c>
     </row>
-    <row r="843" spans="1:6">
+    <row r="843" spans="1:6" ht="15">
       <c r="A843" s="1" t="s">
         <v>5012</v>
       </c>
@@ -35095,7 +35095,7 @@
         <v>5016</v>
       </c>
     </row>
-    <row r="844" spans="1:6">
+    <row r="844" spans="1:6" ht="15">
       <c r="A844" s="1" t="s">
         <v>5017</v>
       </c>
@@ -35115,7 +35115,7 @@
         <v>5022</v>
       </c>
     </row>
-    <row r="845" spans="1:6">
+    <row r="845" spans="1:6" ht="15">
       <c r="A845" s="1" t="s">
         <v>5023</v>
       </c>
@@ -35135,7 +35135,7 @@
         <v>5028</v>
       </c>
     </row>
-    <row r="846" spans="1:6">
+    <row r="846" spans="1:6" ht="15">
       <c r="A846" s="1" t="s">
         <v>5029</v>
       </c>
@@ -35155,7 +35155,7 @@
         <v>5034</v>
       </c>
     </row>
-    <row r="847" spans="1:6">
+    <row r="847" spans="1:6" ht="15">
       <c r="A847" s="1" t="s">
         <v>5035</v>
       </c>
@@ -35175,7 +35175,7 @@
         <v>5040</v>
       </c>
     </row>
-    <row r="848" spans="1:6">
+    <row r="848" spans="1:6" ht="15">
       <c r="A848" s="1" t="s">
         <v>5041</v>
       </c>
@@ -35195,7 +35195,7 @@
         <v>5046</v>
       </c>
     </row>
-    <row r="849" spans="1:6">
+    <row r="849" spans="1:6" ht="15">
       <c r="A849" s="1" t="s">
         <v>5047</v>
       </c>
@@ -35215,7 +35215,7 @@
         <v>5052</v>
       </c>
     </row>
-    <row r="850" spans="1:6">
+    <row r="850" spans="1:6" ht="15">
       <c r="A850" s="1" t="s">
         <v>5053</v>
       </c>
@@ -35235,7 +35235,7 @@
         <v>5058</v>
       </c>
     </row>
-    <row r="851" spans="1:6">
+    <row r="851" spans="1:6" ht="15">
       <c r="A851" s="1" t="s">
         <v>5059</v>
       </c>
@@ -35255,7 +35255,7 @@
         <v>5064</v>
       </c>
     </row>
-    <row r="852" spans="1:6">
+    <row r="852" spans="1:6" ht="15">
       <c r="A852" s="1" t="s">
         <v>5065</v>
       </c>
@@ -35275,7 +35275,7 @@
         <v>5070</v>
       </c>
     </row>
-    <row r="853" spans="1:6">
+    <row r="853" spans="1:6" ht="15">
       <c r="A853" s="1" t="s">
         <v>5071</v>
       </c>
@@ -35295,7 +35295,7 @@
         <v>5075</v>
       </c>
     </row>
-    <row r="854" spans="1:6">
+    <row r="854" spans="1:6" ht="15">
       <c r="A854" s="1" t="s">
         <v>5076</v>
       </c>
@@ -35315,7 +35315,7 @@
         <v>5081</v>
       </c>
     </row>
-    <row r="855" spans="1:6">
+    <row r="855" spans="1:6" ht="15">
       <c r="A855" s="1" t="s">
         <v>5082</v>
       </c>
@@ -35335,7 +35335,7 @@
         <v>5087</v>
       </c>
     </row>
-    <row r="856" spans="1:6">
+    <row r="856" spans="1:6" ht="15">
       <c r="A856" s="1" t="s">
         <v>5088</v>
       </c>
@@ -35355,7 +35355,7 @@
         <v>5093</v>
       </c>
     </row>
-    <row r="857" spans="1:6">
+    <row r="857" spans="1:6" ht="15">
       <c r="A857" s="1" t="s">
         <v>5094</v>
       </c>
@@ -35375,7 +35375,7 @@
         <v>5099</v>
       </c>
     </row>
-    <row r="858" spans="1:6">
+    <row r="858" spans="1:6" ht="15">
       <c r="A858" s="1" t="s">
         <v>5100</v>
       </c>
@@ -35395,7 +35395,7 @@
         <v>5105</v>
       </c>
     </row>
-    <row r="859" spans="1:6">
+    <row r="859" spans="1:6" ht="15">
       <c r="A859" s="1" t="s">
         <v>5106</v>
       </c>
@@ -35415,7 +35415,7 @@
         <v>5111</v>
       </c>
     </row>
-    <row r="860" spans="1:6">
+    <row r="860" spans="1:6" ht="15">
       <c r="A860" s="1" t="s">
         <v>5112</v>
       </c>
@@ -35435,7 +35435,7 @@
         <v>5117</v>
       </c>
     </row>
-    <row r="861" spans="1:6">
+    <row r="861" spans="1:6" ht="15">
       <c r="A861" s="1" t="s">
         <v>5118</v>
       </c>
@@ -35455,7 +35455,7 @@
         <v>5123</v>
       </c>
     </row>
-    <row r="862" spans="1:6">
+    <row r="862" spans="1:6" ht="15">
       <c r="A862" s="1" t="s">
         <v>5124</v>
       </c>
@@ -35475,7 +35475,7 @@
         <v>5129</v>
       </c>
     </row>
-    <row r="863" spans="1:6">
+    <row r="863" spans="1:6" ht="15">
       <c r="A863" s="1" t="s">
         <v>5130</v>
       </c>
@@ -35495,7 +35495,7 @@
         <v>5135</v>
       </c>
     </row>
-    <row r="864" spans="1:6">
+    <row r="864" spans="1:6" ht="15">
       <c r="A864" s="1" t="s">
         <v>5136</v>
       </c>
@@ -35515,7 +35515,7 @@
         <v>5141</v>
       </c>
     </row>
-    <row r="865" spans="1:6">
+    <row r="865" spans="1:6" ht="15">
       <c r="A865" s="1" t="s">
         <v>5142</v>
       </c>
@@ -35535,7 +35535,7 @@
         <v>5147</v>
       </c>
     </row>
-    <row r="866" spans="1:6">
+    <row r="866" spans="1:6" ht="15">
       <c r="A866" s="1" t="s">
         <v>5148</v>
       </c>
@@ -35555,7 +35555,7 @@
         <v>5152</v>
       </c>
     </row>
-    <row r="867" spans="1:6">
+    <row r="867" spans="1:6" ht="15">
       <c r="A867" s="1" t="s">
         <v>5153</v>
       </c>
@@ -35575,7 +35575,7 @@
         <v>5158</v>
       </c>
     </row>
-    <row r="868" spans="1:6">
+    <row r="868" spans="1:6" ht="15">
       <c r="A868" s="1" t="s">
         <v>5159</v>
       </c>
@@ -35595,7 +35595,7 @@
         <v>5164</v>
       </c>
     </row>
-    <row r="869" spans="1:6">
+    <row r="869" spans="1:6" ht="15">
       <c r="A869" s="1" t="s">
         <v>5165</v>
       </c>
@@ -35615,7 +35615,7 @@
         <v>5170</v>
       </c>
     </row>
-    <row r="870" spans="1:6">
+    <row r="870" spans="1:6" ht="15">
       <c r="A870" s="1" t="s">
         <v>5171</v>
       </c>
@@ -35635,7 +35635,7 @@
         <v>5176</v>
       </c>
     </row>
-    <row r="871" spans="1:6">
+    <row r="871" spans="1:6" ht="15">
       <c r="A871" s="1" t="s">
         <v>5177</v>
       </c>
@@ -35655,7 +35655,7 @@
         <v>5182</v>
       </c>
     </row>
-    <row r="872" spans="1:6">
+    <row r="872" spans="1:6" ht="15">
       <c r="A872" s="1" t="s">
         <v>5183</v>
       </c>
@@ -35675,7 +35675,7 @@
         <v>5187</v>
       </c>
     </row>
-    <row r="873" spans="1:6">
+    <row r="873" spans="1:6" ht="15">
       <c r="A873" s="1" t="s">
         <v>5188</v>
       </c>
@@ -35695,7 +35695,7 @@
         <v>5193</v>
       </c>
     </row>
-    <row r="874" spans="1:6">
+    <row r="874" spans="1:6" ht="15">
       <c r="A874" s="1" t="s">
         <v>5194</v>
       </c>
@@ -35715,7 +35715,7 @@
         <v>5199</v>
       </c>
     </row>
-    <row r="875" spans="1:6">
+    <row r="875" spans="1:6" ht="15">
       <c r="A875" s="1" t="s">
         <v>5200</v>
       </c>
@@ -35735,7 +35735,7 @@
         <v>5204</v>
       </c>
     </row>
-    <row r="876" spans="1:6">
+    <row r="876" spans="1:6" ht="15">
       <c r="A876" s="1" t="s">
         <v>5205</v>
       </c>
@@ -35755,7 +35755,7 @@
         <v>5210</v>
       </c>
     </row>
-    <row r="877" spans="1:6">
+    <row r="877" spans="1:6" ht="15">
       <c r="A877" s="1" t="s">
         <v>5211</v>
       </c>
@@ -35775,7 +35775,7 @@
         <v>5216</v>
       </c>
     </row>
-    <row r="878" spans="1:6">
+    <row r="878" spans="1:6" ht="15">
       <c r="A878" s="1" t="s">
         <v>5217</v>
       </c>
@@ -35795,7 +35795,7 @@
         <v>5222</v>
       </c>
     </row>
-    <row r="879" spans="1:6">
+    <row r="879" spans="1:6" ht="15">
       <c r="A879" s="1" t="s">
         <v>5223</v>
       </c>
@@ -35815,7 +35815,7 @@
         <v>5228</v>
       </c>
     </row>
-    <row r="880" spans="1:6">
+    <row r="880" spans="1:6" ht="15">
       <c r="A880" s="1" t="s">
         <v>5229</v>
       </c>
@@ -35835,7 +35835,7 @@
         <v>5234</v>
       </c>
     </row>
-    <row r="881" spans="1:6">
+    <row r="881" spans="1:6" ht="15">
       <c r="A881" s="1" t="s">
         <v>5235</v>
       </c>
@@ -35855,7 +35855,7 @@
         <v>5240</v>
       </c>
     </row>
-    <row r="882" spans="1:6">
+    <row r="882" spans="1:6" ht="15">
       <c r="A882" s="1" t="s">
         <v>1647</v>
       </c>
@@ -35875,7 +35875,7 @@
         <v>5245</v>
       </c>
     </row>
-    <row r="883" spans="1:6">
+    <row r="883" spans="1:6" ht="15">
       <c r="A883" s="1" t="s">
         <v>5246</v>
       </c>
@@ -35895,7 +35895,7 @@
         <v>5251</v>
       </c>
     </row>
-    <row r="884" spans="1:6">
+    <row r="884" spans="1:6" ht="15">
       <c r="A884" s="1" t="s">
         <v>5252</v>
       </c>
@@ -35915,7 +35915,7 @@
         <v>5257</v>
       </c>
     </row>
-    <row r="885" spans="1:6">
+    <row r="885" spans="1:6" ht="15">
       <c r="A885" s="1" t="s">
         <v>5258</v>
       </c>
@@ -35935,7 +35935,7 @@
         <v>5263</v>
       </c>
     </row>
-    <row r="886" spans="1:6">
+    <row r="886" spans="1:6" ht="15">
       <c r="A886" s="1" t="s">
         <v>5264</v>
       </c>
@@ -35955,7 +35955,7 @@
         <v>5269</v>
       </c>
     </row>
-    <row r="887" spans="1:6">
+    <row r="887" spans="1:6" ht="15">
       <c r="A887" s="1" t="s">
         <v>5270</v>
       </c>
@@ -35975,7 +35975,7 @@
         <v>5275</v>
       </c>
     </row>
-    <row r="888" spans="1:6">
+    <row r="888" spans="1:6" ht="15">
       <c r="A888" s="1" t="s">
         <v>5276</v>
       </c>
@@ -35995,7 +35995,7 @@
         <v>5281</v>
       </c>
     </row>
-    <row r="889" spans="1:6">
+    <row r="889" spans="1:6" ht="15">
       <c r="A889" s="1" t="s">
         <v>5282</v>
       </c>
@@ -36015,7 +36015,7 @@
         <v>5287</v>
       </c>
     </row>
-    <row r="890" spans="1:6">
+    <row r="890" spans="1:6" ht="15">
       <c r="A890" s="1" t="s">
         <v>5288</v>
       </c>
@@ -36035,7 +36035,7 @@
         <v>5293</v>
       </c>
     </row>
-    <row r="891" spans="1:6">
+    <row r="891" spans="1:6" ht="15">
       <c r="A891" s="1" t="s">
         <v>5294</v>
       </c>
@@ -36055,7 +36055,7 @@
         <v>5299</v>
       </c>
     </row>
-    <row r="892" spans="1:6">
+    <row r="892" spans="1:6" ht="15">
       <c r="A892" s="1" t="s">
         <v>5300</v>
       </c>
@@ -36075,7 +36075,7 @@
         <v>5305</v>
       </c>
     </row>
-    <row r="893" spans="1:6">
+    <row r="893" spans="1:6" ht="15">
       <c r="A893" s="1" t="s">
         <v>5306</v>
       </c>
@@ -36095,7 +36095,7 @@
         <v>5311</v>
       </c>
     </row>
-    <row r="894" spans="1:6">
+    <row r="894" spans="1:6" ht="15">
       <c r="A894" s="1" t="s">
         <v>5312</v>
       </c>
@@ -36115,7 +36115,7 @@
         <v>5317</v>
       </c>
     </row>
-    <row r="895" spans="1:6">
+    <row r="895" spans="1:6" ht="15">
       <c r="A895" s="1" t="s">
         <v>5318</v>
       </c>
@@ -36135,7 +36135,7 @@
         <v>5323</v>
       </c>
     </row>
-    <row r="896" spans="1:6">
+    <row r="896" spans="1:6" ht="15">
       <c r="A896" s="1" t="s">
         <v>5324</v>
       </c>
@@ -36155,7 +36155,7 @@
         <v>5328</v>
       </c>
     </row>
-    <row r="897" spans="1:6">
+    <row r="897" spans="1:6" ht="15">
       <c r="A897" s="1" t="s">
         <v>5329</v>
       </c>
@@ -36175,7 +36175,7 @@
         <v>5334</v>
       </c>
     </row>
-    <row r="898" spans="1:6">
+    <row r="898" spans="1:6" ht="15">
       <c r="A898" s="1" t="s">
         <v>5335</v>
       </c>
@@ -36195,7 +36195,7 @@
         <v>5340</v>
       </c>
     </row>
-    <row r="899" spans="1:6">
+    <row r="899" spans="1:6" ht="15">
       <c r="A899" s="1" t="s">
         <v>5341</v>
       </c>
@@ -36215,7 +36215,7 @@
         <v>5346</v>
       </c>
     </row>
-    <row r="900" spans="1:6">
+    <row r="900" spans="1:6" ht="15">
       <c r="A900" s="1" t="s">
         <v>5347</v>
       </c>
@@ -36235,7 +36235,7 @@
         <v>5352</v>
       </c>
     </row>
-    <row r="901" spans="1:6">
+    <row r="901" spans="1:6" ht="15">
       <c r="A901" s="1" t="s">
         <v>5353</v>
       </c>
@@ -36255,7 +36255,7 @@
         <v>5358</v>
       </c>
     </row>
-    <row r="902" spans="1:6">
+    <row r="902" spans="1:6" ht="15">
       <c r="A902" s="1" t="s">
         <v>5359</v>
       </c>
@@ -36275,7 +36275,7 @@
         <v>5364</v>
       </c>
     </row>
-    <row r="903" spans="1:6">
+    <row r="903" spans="1:6" ht="15">
       <c r="A903" s="1" t="s">
         <v>5365</v>
       </c>
@@ -36295,7 +36295,7 @@
         <v>5370</v>
       </c>
     </row>
-    <row r="904" spans="1:6">
+    <row r="904" spans="1:6" ht="15">
       <c r="A904" s="1" t="s">
         <v>5371</v>
       </c>
@@ -36315,7 +36315,7 @@
         <v>5376</v>
       </c>
     </row>
-    <row r="905" spans="1:6">
+    <row r="905" spans="1:6" ht="15">
       <c r="A905" s="1" t="s">
         <v>5377</v>
       </c>
@@ -36335,7 +36335,7 @@
         <v>5382</v>
       </c>
     </row>
-    <row r="906" spans="1:6">
+    <row r="906" spans="1:6" ht="15">
       <c r="A906" s="1" t="s">
         <v>5383</v>
       </c>
@@ -36355,7 +36355,7 @@
         <v>5388</v>
       </c>
     </row>
-    <row r="907" spans="1:6">
+    <row r="907" spans="1:6" ht="15">
       <c r="A907" s="1" t="s">
         <v>5389</v>
       </c>
@@ -36375,7 +36375,7 @@
         <v>5394</v>
       </c>
     </row>
-    <row r="908" spans="1:6">
+    <row r="908" spans="1:6" ht="15">
       <c r="A908" s="1" t="s">
         <v>5395</v>
       </c>
@@ -36395,7 +36395,7 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="909" spans="1:6">
+    <row r="909" spans="1:6" ht="15">
       <c r="A909" s="1" t="s">
         <v>5401</v>
       </c>
@@ -36415,7 +36415,7 @@
         <v>5406</v>
       </c>
     </row>
-    <row r="910" spans="1:6">
+    <row r="910" spans="1:6" ht="15">
       <c r="A910" s="1" t="s">
         <v>5407</v>
       </c>
@@ -36435,7 +36435,7 @@
         <v>5412</v>
       </c>
     </row>
-    <row r="911" spans="1:6">
+    <row r="911" spans="1:6" ht="15">
       <c r="A911" s="1" t="s">
         <v>5413</v>
       </c>
@@ -36455,7 +36455,7 @@
         <v>5418</v>
       </c>
     </row>
-    <row r="912" spans="1:6">
+    <row r="912" spans="1:6" ht="15">
       <c r="A912" s="1" t="s">
         <v>5419</v>
       </c>
@@ -36475,7 +36475,7 @@
         <v>5424</v>
       </c>
     </row>
-    <row r="913" spans="1:6">
+    <row r="913" spans="1:6" ht="15">
       <c r="A913" s="1" t="s">
         <v>5425</v>
       </c>
@@ -36495,7 +36495,7 @@
         <v>5430</v>
       </c>
     </row>
-    <row r="914" spans="1:6">
+    <row r="914" spans="1:6" ht="15">
       <c r="A914" s="1" t="s">
         <v>5431</v>
       </c>
@@ -36515,7 +36515,7 @@
         <v>5436</v>
       </c>
     </row>
-    <row r="915" spans="1:6">
+    <row r="915" spans="1:6" ht="15">
       <c r="A915" s="1" t="s">
         <v>5437</v>
       </c>
@@ -36535,7 +36535,7 @@
         <v>5442</v>
       </c>
     </row>
-    <row r="916" spans="1:6">
+    <row r="916" spans="1:6" ht="15">
       <c r="A916" s="1" t="s">
         <v>5443</v>
       </c>
@@ -36555,7 +36555,7 @@
         <v>5448</v>
       </c>
     </row>
-    <row r="917" spans="1:6">
+    <row r="917" spans="1:6" ht="15">
       <c r="A917" s="1" t="s">
         <v>5449</v>
       </c>
@@ -36575,7 +36575,7 @@
         <v>5454</v>
       </c>
     </row>
-    <row r="918" spans="1:6">
+    <row r="918" spans="1:6" ht="15">
       <c r="A918" s="1" t="s">
         <v>5455</v>
       </c>
@@ -36595,7 +36595,7 @@
         <v>5459</v>
       </c>
     </row>
-    <row r="919" spans="1:6">
+    <row r="919" spans="1:6" ht="15">
       <c r="A919" s="1" t="s">
         <v>5460</v>
       </c>
@@ -36615,7 +36615,7 @@
         <v>5465</v>
       </c>
     </row>
-    <row r="920" spans="1:6">
+    <row r="920" spans="1:6" ht="15">
       <c r="A920" s="1" t="s">
         <v>5466</v>
       </c>
@@ -36635,7 +36635,7 @@
         <v>5471</v>
       </c>
     </row>
-    <row r="921" spans="1:6">
+    <row r="921" spans="1:6" ht="15">
       <c r="A921" s="1" t="s">
         <v>5472</v>
       </c>
@@ -36655,7 +36655,7 @@
         <v>5476</v>
       </c>
     </row>
-    <row r="922" spans="1:6">
+    <row r="922" spans="1:6" ht="15">
       <c r="A922" s="1" t="s">
         <v>5477</v>
       </c>
@@ -36675,7 +36675,7 @@
         <v>5482</v>
       </c>
     </row>
-    <row r="923" spans="1:6">
+    <row r="923" spans="1:6" ht="15">
       <c r="A923" s="1" t="s">
         <v>5483</v>
       </c>
@@ -36695,7 +36695,7 @@
         <v>5488</v>
       </c>
     </row>
-    <row r="924" spans="1:6">
+    <row r="924" spans="1:6" ht="15">
       <c r="A924" s="1" t="s">
         <v>5489</v>
       </c>
@@ -36715,7 +36715,7 @@
         <v>5494</v>
       </c>
     </row>
-    <row r="925" spans="1:6">
+    <row r="925" spans="1:6" ht="15">
       <c r="A925" s="1" t="s">
         <v>5495</v>
       </c>
@@ -36735,7 +36735,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="926" spans="1:6">
+    <row r="926" spans="1:6" ht="15">
       <c r="A926" s="1" t="s">
         <v>5501</v>
       </c>
@@ -36755,7 +36755,7 @@
         <v>5506</v>
       </c>
     </row>
-    <row r="927" spans="1:6">
+    <row r="927" spans="1:6" ht="15">
       <c r="A927" s="1" t="s">
         <v>5507</v>
       </c>
@@ -36775,7 +36775,7 @@
         <v>5512</v>
       </c>
     </row>
-    <row r="928" spans="1:6">
+    <row r="928" spans="1:6" ht="15">
       <c r="A928" s="1" t="s">
         <v>5513</v>
       </c>
@@ -36795,7 +36795,7 @@
         <v>5518</v>
       </c>
     </row>
-    <row r="929" spans="1:6">
+    <row r="929" spans="1:6" ht="15">
       <c r="A929" s="1" t="s">
         <v>5519</v>
       </c>
@@ -36815,7 +36815,7 @@
         <v>5524</v>
       </c>
     </row>
-    <row r="930" spans="1:6">
+    <row r="930" spans="1:6" ht="15">
       <c r="A930" s="1" t="s">
         <v>5525</v>
       </c>
@@ -36835,7 +36835,7 @@
         <v>5530</v>
       </c>
     </row>
-    <row r="931" spans="1:6">
+    <row r="931" spans="1:6" ht="15">
       <c r="A931" s="1" t="s">
         <v>5531</v>
       </c>
@@ -36855,7 +36855,7 @@
         <v>5536</v>
       </c>
     </row>
-    <row r="932" spans="1:6">
+    <row r="932" spans="1:6" ht="15">
       <c r="A932" s="1" t="s">
         <v>5537</v>
       </c>
@@ -36875,7 +36875,7 @@
         <v>5542</v>
       </c>
     </row>
-    <row r="933" spans="1:6">
+    <row r="933" spans="1:6" ht="15">
       <c r="A933" s="1" t="s">
         <v>5543</v>
       </c>
@@ -36895,7 +36895,7 @@
         <v>5548</v>
       </c>
     </row>
-    <row r="934" spans="1:6">
+    <row r="934" spans="1:6" ht="15">
       <c r="A934" s="1" t="s">
         <v>5549</v>
       </c>
@@ -36915,7 +36915,7 @@
         <v>5554</v>
       </c>
     </row>
-    <row r="935" spans="1:6">
+    <row r="935" spans="1:6" ht="15">
       <c r="A935" s="1" t="s">
         <v>5555</v>
       </c>
@@ -36935,7 +36935,7 @@
         <v>5560</v>
       </c>
     </row>
-    <row r="936" spans="1:6">
+    <row r="936" spans="1:6" ht="15">
       <c r="A936" s="1" t="s">
         <v>5561</v>
       </c>
@@ -36955,7 +36955,7 @@
         <v>5566</v>
       </c>
     </row>
-    <row r="937" spans="1:6">
+    <row r="937" spans="1:6" ht="15">
       <c r="A937" s="1" t="s">
         <v>5567</v>
       </c>
@@ -36975,7 +36975,7 @@
         <v>5572</v>
       </c>
     </row>
-    <row r="938" spans="1:6">
+    <row r="938" spans="1:6" ht="15">
       <c r="A938" s="1" t="s">
         <v>5573</v>
       </c>
@@ -36995,7 +36995,7 @@
         <v>5578</v>
       </c>
     </row>
-    <row r="939" spans="1:6">
+    <row r="939" spans="1:6" ht="15">
       <c r="A939" s="1" t="s">
         <v>5579</v>
       </c>
@@ -37015,7 +37015,7 @@
         <v>5584</v>
       </c>
     </row>
-    <row r="940" spans="1:6">
+    <row r="940" spans="1:6" ht="15">
       <c r="A940" s="1" t="s">
         <v>5585</v>
       </c>
@@ -37035,7 +37035,7 @@
         <v>5590</v>
       </c>
     </row>
-    <row r="941" spans="1:6">
+    <row r="941" spans="1:6" ht="15">
       <c r="A941" s="1" t="s">
         <v>5591</v>
       </c>
@@ -37055,7 +37055,7 @@
         <v>5596</v>
       </c>
     </row>
-    <row r="942" spans="1:6">
+    <row r="942" spans="1:6" ht="15">
       <c r="A942" s="1" t="s">
         <v>5597</v>
       </c>
@@ -37075,7 +37075,7 @@
         <v>5602</v>
       </c>
     </row>
-    <row r="943" spans="1:6">
+    <row r="943" spans="1:6" ht="15">
       <c r="A943" s="1" t="s">
         <v>5603</v>
       </c>
@@ -37095,7 +37095,7 @@
         <v>5608</v>
       </c>
     </row>
-    <row r="944" spans="1:6">
+    <row r="944" spans="1:6" ht="15">
       <c r="A944" s="1" t="s">
         <v>5609</v>
       </c>
@@ -37115,7 +37115,7 @@
         <v>5614</v>
       </c>
     </row>
-    <row r="945" spans="1:6">
+    <row r="945" spans="1:6" ht="15">
       <c r="A945" s="1" t="s">
         <v>5615</v>
       </c>
@@ -37135,7 +37135,7 @@
         <v>5620</v>
       </c>
     </row>
-    <row r="946" spans="1:6">
+    <row r="946" spans="1:6" ht="15">
       <c r="A946" s="1" t="s">
         <v>5621</v>
       </c>
@@ -37155,7 +37155,7 @@
         <v>5626</v>
       </c>
     </row>
-    <row r="947" spans="1:6">
+    <row r="947" spans="1:6" ht="15">
       <c r="A947" s="1" t="s">
         <v>5627</v>
       </c>
@@ -37175,7 +37175,7 @@
         <v>5632</v>
       </c>
     </row>
-    <row r="948" spans="1:6">
+    <row r="948" spans="1:6" ht="15">
       <c r="A948" s="1" t="s">
         <v>5633</v>
       </c>
@@ -37195,7 +37195,7 @@
         <v>5637</v>
       </c>
     </row>
-    <row r="949" spans="1:6">
+    <row r="949" spans="1:6" ht="15">
       <c r="A949" s="1" t="s">
         <v>5638</v>
       </c>
@@ -37215,7 +37215,7 @@
         <v>5643</v>
       </c>
     </row>
-    <row r="950" spans="1:6">
+    <row r="950" spans="1:6" ht="15">
       <c r="A950" s="1" t="s">
         <v>5644</v>
       </c>
@@ -37235,7 +37235,7 @@
         <v>5649</v>
       </c>
     </row>
-    <row r="951" spans="1:6">
+    <row r="951" spans="1:6" ht="15">
       <c r="A951" s="1" t="s">
         <v>5650</v>
       </c>
@@ -37255,7 +37255,7 @@
         <v>5655</v>
       </c>
     </row>
-    <row r="952" spans="1:6">
+    <row r="952" spans="1:6" ht="15">
       <c r="A952" s="1" t="s">
         <v>5656</v>
       </c>
@@ -37275,7 +37275,7 @@
         <v>5661</v>
       </c>
     </row>
-    <row r="953" spans="1:6">
+    <row r="953" spans="1:6" ht="15">
       <c r="A953" s="1" t="s">
         <v>5656</v>
       </c>
@@ -37295,7 +37295,7 @@
         <v>5666</v>
       </c>
     </row>
-    <row r="954" spans="1:6">
+    <row r="954" spans="1:6" ht="15">
       <c r="A954" s="1" t="s">
         <v>5525</v>
       </c>
@@ -37315,7 +37315,7 @@
         <v>5671</v>
       </c>
     </row>
-    <row r="955" spans="1:6">
+    <row r="955" spans="1:6" ht="15">
       <c r="A955" s="1" t="s">
         <v>5672</v>
       </c>
@@ -37335,7 +37335,7 @@
         <v>5677</v>
       </c>
     </row>
-    <row r="956" spans="1:6">
+    <row r="956" spans="1:6" ht="15">
       <c r="A956" s="1" t="s">
         <v>24</v>
       </c>
@@ -37355,7 +37355,7 @@
         <v>5682</v>
       </c>
     </row>
-    <row r="957" spans="1:6">
+    <row r="957" spans="1:6" ht="15">
       <c r="A957" s="1" t="s">
         <v>5683</v>
       </c>
@@ -37375,7 +37375,7 @@
         <v>5688</v>
       </c>
     </row>
-    <row r="958" spans="1:6">
+    <row r="958" spans="1:6" ht="15">
       <c r="A958" s="1" t="s">
         <v>5689</v>
       </c>
@@ -37395,7 +37395,7 @@
         <v>5694</v>
       </c>
     </row>
-    <row r="959" spans="1:6">
+    <row r="959" spans="1:6" ht="15">
       <c r="A959" s="1" t="s">
         <v>5695</v>
       </c>
@@ -37415,7 +37415,7 @@
         <v>5700</v>
       </c>
     </row>
-    <row r="960" spans="1:6">
+    <row r="960" spans="1:6" ht="15">
       <c r="A960" s="1" t="s">
         <v>5701</v>
       </c>
@@ -37435,7 +37435,7 @@
         <v>5706</v>
       </c>
     </row>
-    <row r="961" spans="1:6">
+    <row r="961" spans="1:6" ht="15">
       <c r="A961" s="1" t="s">
         <v>5707</v>
       </c>
@@ -37455,7 +37455,7 @@
         <v>5712</v>
       </c>
     </row>
-    <row r="962" spans="1:6">
+    <row r="962" spans="1:6" ht="15">
       <c r="A962" s="1" t="s">
         <v>5713</v>
       </c>
@@ -37475,7 +37475,7 @@
         <v>5718</v>
       </c>
     </row>
-    <row r="963" spans="1:6">
+    <row r="963" spans="1:6" ht="15">
       <c r="A963" s="1" t="s">
         <v>5719</v>
       </c>
@@ -37495,7 +37495,7 @@
         <v>5724</v>
       </c>
     </row>
-    <row r="964" spans="1:6">
+    <row r="964" spans="1:6" ht="15">
       <c r="A964" s="1" t="s">
         <v>5725</v>
       </c>
@@ -37515,7 +37515,7 @@
         <v>5730</v>
       </c>
     </row>
-    <row r="965" spans="1:6">
+    <row r="965" spans="1:6" ht="15">
       <c r="A965" s="1" t="s">
         <v>5731</v>
       </c>
@@ -37535,7 +37535,7 @@
         <v>5736</v>
       </c>
     </row>
-    <row r="966" spans="1:6">
+    <row r="966" spans="1:6" ht="15">
       <c r="A966" s="1" t="s">
         <v>5737</v>
       </c>
@@ -37555,7 +37555,7 @@
         <v>5742</v>
       </c>
     </row>
-    <row r="967" spans="1:6">
+    <row r="967" spans="1:6" ht="15">
       <c r="A967" s="1" t="s">
         <v>5743</v>
       </c>
@@ -37575,7 +37575,7 @@
         <v>5747</v>
       </c>
     </row>
-    <row r="968" spans="1:6">
+    <row r="968" spans="1:6" ht="15">
       <c r="A968" s="1" t="s">
         <v>5748</v>
       </c>
@@ -37595,7 +37595,7 @@
         <v>5753</v>
       </c>
     </row>
-    <row r="969" spans="1:6">
+    <row r="969" spans="1:6" ht="15">
       <c r="A969" s="1" t="s">
         <v>5754</v>
       </c>
@@ -37615,7 +37615,7 @@
         <v>5758</v>
       </c>
     </row>
-    <row r="970" spans="1:6">
+    <row r="970" spans="1:6" ht="15">
       <c r="A970" s="1" t="s">
         <v>5759</v>
       </c>
@@ -37635,7 +37635,7 @@
         <v>5764</v>
       </c>
     </row>
-    <row r="971" spans="1:6">
+    <row r="971" spans="1:6" ht="15">
       <c r="A971" s="1" t="s">
         <v>5765</v>
       </c>
@@ -37655,7 +37655,7 @@
         <v>5770</v>
       </c>
     </row>
-    <row r="972" spans="1:6">
+    <row r="972" spans="1:6" ht="15">
       <c r="A972" s="1" t="s">
         <v>5771</v>
       </c>
@@ -37675,7 +37675,7 @@
         <v>5776</v>
       </c>
     </row>
-    <row r="973" spans="1:6">
+    <row r="973" spans="1:6" ht="15">
       <c r="A973" s="1" t="s">
         <v>5777</v>
       </c>
@@ -37695,7 +37695,7 @@
         <v>5782</v>
       </c>
     </row>
-    <row r="974" spans="1:6">
+    <row r="974" spans="1:6" ht="15">
       <c r="A974" s="1" t="s">
         <v>5783</v>
       </c>
@@ -37715,7 +37715,7 @@
         <v>5788</v>
       </c>
     </row>
-    <row r="975" spans="1:6">
+    <row r="975" spans="1:6" ht="15">
       <c r="A975" s="1" t="s">
         <v>5789</v>
       </c>
@@ -37735,7 +37735,7 @@
         <v>5794</v>
       </c>
     </row>
-    <row r="976" spans="1:6">
+    <row r="976" spans="1:6" ht="15">
       <c r="A976" s="1" t="s">
         <v>5795</v>
       </c>
@@ -37755,7 +37755,7 @@
         <v>5800</v>
       </c>
     </row>
-    <row r="977" spans="1:6">
+    <row r="977" spans="1:6" ht="15">
       <c r="A977" s="1" t="s">
         <v>5801</v>
       </c>
@@ -37775,7 +37775,7 @@
         <v>5806</v>
       </c>
     </row>
-    <row r="978" spans="1:6">
+    <row r="978" spans="1:6" ht="15">
       <c r="A978" s="1" t="s">
         <v>5807</v>
       </c>
@@ -37795,7 +37795,7 @@
         <v>5812</v>
       </c>
     </row>
-    <row r="979" spans="1:6">
+    <row r="979" spans="1:6" ht="15">
       <c r="A979" s="1" t="s">
         <v>5813</v>
       </c>
@@ -37815,7 +37815,7 @@
         <v>5818</v>
       </c>
     </row>
-    <row r="980" spans="1:6">
+    <row r="980" spans="1:6" ht="15">
       <c r="A980" s="1" t="s">
         <v>5819</v>
       </c>
@@ -37835,7 +37835,7 @@
         <v>5824</v>
       </c>
     </row>
-    <row r="981" spans="1:6">
+    <row r="981" spans="1:6" ht="15">
       <c r="A981" s="1" t="s">
         <v>5825</v>
       </c>
@@ -37855,7 +37855,7 @@
         <v>5830</v>
       </c>
     </row>
-    <row r="982" spans="1:6">
+    <row r="982" spans="1:6" ht="15">
       <c r="A982" s="1" t="s">
         <v>5831</v>
       </c>
@@ -37875,7 +37875,7 @@
         <v>5836</v>
       </c>
     </row>
-    <row r="983" spans="1:6">
+    <row r="983" spans="1:6" ht="15">
       <c r="A983" s="1" t="s">
         <v>5837</v>
       </c>
@@ -37895,7 +37895,7 @@
         <v>5842</v>
       </c>
     </row>
-    <row r="984" spans="1:6">
+    <row r="984" spans="1:6" ht="15">
       <c r="A984" s="1" t="s">
         <v>5843</v>
       </c>
@@ -37915,7 +37915,7 @@
         <v>5848</v>
       </c>
     </row>
-    <row r="985" spans="1:6">
+    <row r="985" spans="1:6" ht="15">
       <c r="A985" s="1" t="s">
         <v>5849</v>
       </c>
@@ -37935,7 +37935,7 @@
         <v>5854</v>
       </c>
     </row>
-    <row r="986" spans="1:6">
+    <row r="986" spans="1:6" ht="15">
       <c r="A986" s="1" t="s">
         <v>5855</v>
       </c>
@@ -37955,7 +37955,7 @@
         <v>5860</v>
       </c>
     </row>
-    <row r="987" spans="1:6">
+    <row r="987" spans="1:6" ht="15">
       <c r="A987" s="1" t="s">
         <v>5861</v>
       </c>
@@ -37975,7 +37975,7 @@
         <v>5866</v>
       </c>
     </row>
-    <row r="988" spans="1:6">
+    <row r="988" spans="1:6" ht="15">
       <c r="A988" s="1" t="s">
         <v>5867</v>
       </c>
@@ -37995,7 +37995,7 @@
         <v>5872</v>
       </c>
     </row>
-    <row r="989" spans="1:6">
+    <row r="989" spans="1:6" ht="15">
       <c r="A989" s="1" t="s">
         <v>5873</v>
       </c>
@@ -38015,7 +38015,7 @@
         <v>5878</v>
       </c>
     </row>
-    <row r="990" spans="1:6">
+    <row r="990" spans="1:6" ht="15">
       <c r="A990" s="1" t="s">
         <v>4682</v>
       </c>
@@ -38035,7 +38035,7 @@
         <v>5883</v>
       </c>
     </row>
-    <row r="991" spans="1:6">
+    <row r="991" spans="1:6" ht="15">
       <c r="A991" s="1" t="s">
         <v>66</v>
       </c>
@@ -38055,7 +38055,7 @@
         <v>5887</v>
       </c>
     </row>
-    <row r="992" spans="1:6">
+    <row r="992" spans="1:6" ht="15">
       <c r="A992" s="1" t="s">
         <v>5888</v>
       </c>
@@ -38075,7 +38075,7 @@
         <v>5893</v>
       </c>
     </row>
-    <row r="993" spans="1:6">
+    <row r="993" spans="1:6" ht="15">
       <c r="A993" s="1" t="s">
         <v>5894</v>
       </c>
@@ -38095,7 +38095,7 @@
         <v>5899</v>
       </c>
     </row>
-    <row r="994" spans="1:6">
+    <row r="994" spans="1:6" ht="15">
       <c r="A994" s="1" t="s">
         <v>5900</v>
       </c>
@@ -38115,7 +38115,7 @@
         <v>5904</v>
       </c>
     </row>
-    <row r="995" spans="1:6">
+    <row r="995" spans="1:6" ht="15">
       <c r="A995" s="1" t="s">
         <v>5905</v>
       </c>
@@ -38135,7 +38135,7 @@
         <v>5910</v>
       </c>
     </row>
-    <row r="996" spans="1:6">
+    <row r="996" spans="1:6" ht="15">
       <c r="A996" s="1" t="s">
         <v>5911</v>
       </c>
@@ -38155,7 +38155,7 @@
         <v>5916</v>
       </c>
     </row>
-    <row r="997" spans="1:6">
+    <row r="997" spans="1:6" ht="15">
       <c r="A997" s="1" t="s">
         <v>5917</v>
       </c>
@@ -38175,7 +38175,7 @@
         <v>5922</v>
       </c>
     </row>
-    <row r="998" spans="1:6">
+    <row r="998" spans="1:6" ht="15">
       <c r="A998" s="1" t="s">
         <v>5923</v>
       </c>
@@ -38195,7 +38195,7 @@
         <v>5928</v>
       </c>
     </row>
-    <row r="999" spans="1:6">
+    <row r="999" spans="1:6" ht="15">
       <c r="A999" s="1" t="s">
         <v>5929</v>
       </c>
@@ -38215,7 +38215,7 @@
         <v>5934</v>
       </c>
     </row>
-    <row r="1000" spans="1:6">
+    <row r="1000" spans="1:6" ht="15">
       <c r="A1000" s="1" t="s">
         <v>5935</v>
       </c>
@@ -38235,7 +38235,7 @@
         <v>5940</v>
       </c>
     </row>
-    <row r="1001" spans="1:6">
+    <row r="1001" spans="1:6" ht="15">
       <c r="A1001" s="1" t="s">
         <v>5941</v>
       </c>
